--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-036_自動転記基準セットの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-036_自動転記基準セットの管理.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20246_【会計】基幹システムバージョンアップ（会計領域　GL部門入力）\20_成果物\FBDI(転記JOB想定)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -865,12 +865,13 @@
     <definedName name="有効桁数">#REF!</definedName>
     <definedName name="列長">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="133">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -1100,9 +1101,6 @@
   <si>
     <t>XX03_EBS_GL_AUTOPOST_SET</t>
     <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>GL部門入力からの仕訳の自動転記セット</t>
   </si>
   <si>
     <t>GL部門入力</t>
@@ -1461,7 +1459,7 @@
     <rPh sb="0" eb="2">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="54"/>
+    <phoneticPr fontId="51"/>
   </si>
   <si>
     <t>メニュー</t>
@@ -1474,16 +1472,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>タスク一覧からの選択</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="36"/>
   </si>
@@ -1519,7 +1507,7 @@
     <rPh sb="45" eb="47">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="57"/>
+    <phoneticPr fontId="54"/>
   </si>
   <si>
     <t>画面左の機能領域から該当のタスク種別を選択し、画面右に表示されたタスク名をクリックします。</t>
@@ -1591,7 +1579,7 @@
     <rPh sb="22" eb="24">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="54"/>
+    <phoneticPr fontId="51"/>
   </si>
   <si>
     <t>36</t>
@@ -1641,11 +1629,92 @@
     </rPh>
     <phoneticPr fontId="36"/>
   </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.3</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>SCSK宇田川</t>
+    <rPh sb="4" eb="7">
+      <t>ウダガワ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.4</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>GL部門入力からの仕訳の自動転記セット</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>E_本稼働_20246対応
+STEP4GL部門入力対応　GL部門入力からの仕訳の自動転記セットにERP_GL部門入力を追加（90行目）</t>
+    <rPh sb="2" eb="5">
+      <t>ホンカドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="54" eb="58">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>ERP_GL部門入力</t>
+    <rPh sb="6" eb="10">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>タスク一覧からの選択する例</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
@@ -1952,28 +2021,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF00FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF00FF"/>
-      <name val="Meiryo ui"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF00FF"/>
-      <name val="Meiryo ui"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Meiryo ui"/>
       <family val="3"/>
@@ -2045,6 +2092,27 @@
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF3399"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF3399"/>
+      <name val="Meiryo ui"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2721,11 +2789,11 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
@@ -2783,112 +2851,99 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="26" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="61" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="61" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="47" fillId="17" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="17" borderId="4" xfId="61" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="14" borderId="26" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="61" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="61" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="14" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="61" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="48" fillId="17" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="61" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="45" fillId="17" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="48" fillId="17" borderId="4" xfId="61" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="45" fillId="17" borderId="4" xfId="61" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="61" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="61" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="15" borderId="27" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="15" borderId="27" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="15" borderId="28" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="15" borderId="28" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="15" borderId="29" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="15" borderId="29" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="30" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="14" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="31" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="15" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="16" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="63" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="30" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="14" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="31" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="15" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="16" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="63" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="18" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2896,15 +2951,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2923,6 +2969,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2961,24 +3025,6 @@
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2990,33 +3036,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3053,7 +3072,64 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1"/>
+    <xf numFmtId="14" fontId="56" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="57" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Calc Currency (0)" xfId="1"/>
@@ -3126,6 +3202,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3399"/>
+      <color rgb="FFFF66CC"/>
       <color rgb="FFFF99CC"/>
     </mruColors>
   </colors>
@@ -10941,1211 +11019,1348 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="8" width="2.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.6640625" style="1"/>
+    <col min="10" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.77734375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
-    <row r="2" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A2" s="76" t="s">
+    <row r="1" spans="1:41" ht="11.4" thickBot="1"/>
+    <row r="2" spans="1:41" ht="11.4" thickBot="1">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="76" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="116" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="117"/>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="79">
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="100"/>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="77">
         <v>44865</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="101" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="118" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="81"/>
-    </row>
-    <row r="4" spans="1:37" ht="30" customHeight="1">
-      <c r="A4" s="82">
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="79"/>
+    </row>
+    <row r="4" spans="1:41" ht="30" customHeight="1">
+      <c r="A4" s="80">
         <v>44949</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="104" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="119" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="84"/>
-    </row>
-    <row r="5" spans="1:37" ht="24" customHeight="1">
-      <c r="A5" s="85">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="82"/>
+    </row>
+    <row r="5" spans="1:41" ht="24" customHeight="1">
+      <c r="A5" s="83">
         <v>45041</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="70" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="120" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="105"/>
+    </row>
+    <row r="6" spans="1:41" ht="23.4" customHeight="1">
+      <c r="A6" s="106">
+        <v>45211</v>
+      </c>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
-      <c r="AF5" s="121"/>
-      <c r="AG5" s="121"/>
-      <c r="AH5" s="121"/>
-      <c r="AI5" s="121"/>
-      <c r="AJ5" s="121"/>
-      <c r="AK5" s="122"/>
-    </row>
-    <row r="6" spans="1:37" ht="23.4" customHeight="1">
-      <c r="A6" s="91">
-        <v>45211</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94" t="s">
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="108"/>
-      <c r="AJ6" s="108"/>
-      <c r="AK6" s="109"/>
-    </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="111"/>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="111"/>
-      <c r="AI7" s="111"/>
-      <c r="AJ7" s="111"/>
-      <c r="AK7" s="112"/>
-    </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="85"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="111"/>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="112"/>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="88"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="114"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="114"/>
-      <c r="AA9" s="114"/>
-      <c r="AB9" s="114"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="114"/>
-      <c r="AH9" s="114"/>
-      <c r="AI9" s="114"/>
-      <c r="AJ9" s="114"/>
-      <c r="AK9" s="115"/>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="85"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="111"/>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="111"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="111"/>
-      <c r="AH10" s="111"/>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="111"/>
-      <c r="AK10" s="112"/>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="97"/>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="97"/>
-      <c r="AJ11" s="97"/>
-      <c r="AK11" s="98"/>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="97"/>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="98"/>
-    </row>
-    <row r="13" spans="1:37">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="98"/>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="97"/>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="97"/>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="98"/>
-    </row>
-    <row r="15" spans="1:37">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="98"/>
-    </row>
-    <row r="16" spans="1:37">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="98"/>
-    </row>
-    <row r="17" spans="1:37">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="97"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="97"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="97"/>
-      <c r="AG17" s="97"/>
-      <c r="AH17" s="97"/>
-      <c r="AI17" s="97"/>
-      <c r="AJ17" s="97"/>
-      <c r="AK17" s="98"/>
-    </row>
-    <row r="18" spans="1:37">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="97"/>
-      <c r="AH18" s="97"/>
-      <c r="AI18" s="97"/>
-      <c r="AJ18" s="97"/>
-      <c r="AK18" s="98"/>
-    </row>
-    <row r="19" spans="1:37">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="97"/>
-      <c r="AH19" s="97"/>
-      <c r="AI19" s="97"/>
-      <c r="AJ19" s="97"/>
-      <c r="AK19" s="98"/>
-    </row>
-    <row r="20" spans="1:37">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="97"/>
-      <c r="AI20" s="97"/>
-      <c r="AJ20" s="97"/>
-      <c r="AK20" s="98"/>
-    </row>
-    <row r="21" spans="1:37">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="97"/>
-      <c r="AI21" s="97"/>
-      <c r="AJ21" s="97"/>
-      <c r="AK21" s="98"/>
-    </row>
-    <row r="22" spans="1:37">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="97"/>
-      <c r="AH22" s="97"/>
-      <c r="AI22" s="97"/>
-      <c r="AJ22" s="97"/>
-      <c r="AK22" s="98"/>
-    </row>
-    <row r="23" spans="1:37">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="97"/>
-      <c r="AH23" s="97"/>
-      <c r="AI23" s="97"/>
-      <c r="AJ23" s="97"/>
-      <c r="AK23" s="98"/>
-    </row>
-    <row r="24" spans="1:37">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="97"/>
-      <c r="AB24" s="97"/>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="97"/>
-      <c r="AG24" s="97"/>
-      <c r="AH24" s="97"/>
-      <c r="AI24" s="97"/>
-      <c r="AJ24" s="97"/>
-      <c r="AK24" s="98"/>
-    </row>
-    <row r="25" spans="1:37">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="97"/>
-      <c r="AC25" s="97"/>
-      <c r="AD25" s="97"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="97"/>
-      <c r="AG25" s="97"/>
-      <c r="AH25" s="97"/>
-      <c r="AI25" s="97"/>
-      <c r="AJ25" s="97"/>
-      <c r="AK25" s="98"/>
-    </row>
-    <row r="26" spans="1:37">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="97"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="97"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="97"/>
-      <c r="AG26" s="97"/>
-      <c r="AH26" s="97"/>
-      <c r="AI26" s="97"/>
-      <c r="AJ26" s="97"/>
-      <c r="AK26" s="98"/>
-    </row>
-    <row r="27" spans="1:37">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="97"/>
-      <c r="AG27" s="97"/>
-      <c r="AH27" s="97"/>
-      <c r="AI27" s="97"/>
-      <c r="AJ27" s="97"/>
-      <c r="AK27" s="98"/>
-    </row>
-    <row r="28" spans="1:37">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="97"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="97"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="97"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="97"/>
-      <c r="AH28" s="97"/>
-      <c r="AI28" s="97"/>
-      <c r="AJ28" s="97"/>
-      <c r="AK28" s="98"/>
-    </row>
-    <row r="29" spans="1:37">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="97"/>
-      <c r="U29" s="97"/>
-      <c r="V29" s="97"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="97"/>
-      <c r="AA29" s="97"/>
-      <c r="AB29" s="97"/>
-      <c r="AC29" s="97"/>
-      <c r="AD29" s="97"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="97"/>
-      <c r="AG29" s="97"/>
-      <c r="AH29" s="97"/>
-      <c r="AI29" s="97"/>
-      <c r="AJ29" s="97"/>
-      <c r="AK29" s="98"/>
-    </row>
-    <row r="30" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="99"/>
-      <c r="U30" s="99"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="99"/>
-      <c r="X30" s="99"/>
-      <c r="Y30" s="99"/>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="99"/>
-      <c r="AB30" s="99"/>
-      <c r="AC30" s="99"/>
-      <c r="AD30" s="99"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="99"/>
-      <c r="AG30" s="99"/>
-      <c r="AH30" s="99"/>
-      <c r="AI30" s="99"/>
-      <c r="AJ30" s="99"/>
-      <c r="AK30" s="100"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113"/>
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="114"/>
+    </row>
+    <row r="7" spans="1:41" ht="26.4" customHeight="1">
+      <c r="A7" s="115">
+        <v>45595</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="122"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="122"/>
+      <c r="AM7" s="122"/>
+      <c r="AN7" s="122"/>
+      <c r="AO7" s="123"/>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="94"/>
+      <c r="AI8" s="94"/>
+      <c r="AJ8" s="94"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="94"/>
+      <c r="AM8" s="94"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="95"/>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="97"/>
+      <c r="AH9" s="97"/>
+      <c r="AI9" s="97"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="97"/>
+      <c r="AN9" s="97"/>
+      <c r="AO9" s="98"/>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="95"/>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="89"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="90"/>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="90"/>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="89"/>
+      <c r="AF13" s="89"/>
+      <c r="AG13" s="89"/>
+      <c r="AH13" s="89"/>
+      <c r="AI13" s="89"/>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="89"/>
+      <c r="AL13" s="89"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="89"/>
+      <c r="AO13" s="90"/>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="89"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="89"/>
+      <c r="AI14" s="89"/>
+      <c r="AJ14" s="89"/>
+      <c r="AK14" s="89"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="89"/>
+      <c r="AN14" s="89"/>
+      <c r="AO14" s="90"/>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="89"/>
+      <c r="AJ15" s="89"/>
+      <c r="AK15" s="89"/>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="89"/>
+      <c r="AN15" s="89"/>
+      <c r="AO15" s="90"/>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="89"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="89"/>
+      <c r="AI16" s="89"/>
+      <c r="AJ16" s="89"/>
+      <c r="AK16" s="89"/>
+      <c r="AL16" s="89"/>
+      <c r="AM16" s="89"/>
+      <c r="AN16" s="89"/>
+      <c r="AO16" s="90"/>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="89"/>
+      <c r="AJ17" s="89"/>
+      <c r="AK17" s="89"/>
+      <c r="AL17" s="89"/>
+      <c r="AM17" s="89"/>
+      <c r="AN17" s="89"/>
+      <c r="AO17" s="90"/>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="89"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="89"/>
+      <c r="AJ18" s="89"/>
+      <c r="AK18" s="89"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="89"/>
+      <c r="AO18" s="90"/>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="89"/>
+      <c r="AI19" s="89"/>
+      <c r="AJ19" s="89"/>
+      <c r="AK19" s="89"/>
+      <c r="AL19" s="89"/>
+      <c r="AM19" s="89"/>
+      <c r="AN19" s="89"/>
+      <c r="AO19" s="90"/>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="89"/>
+      <c r="AJ20" s="89"/>
+      <c r="AK20" s="89"/>
+      <c r="AL20" s="89"/>
+      <c r="AM20" s="89"/>
+      <c r="AN20" s="89"/>
+      <c r="AO20" s="90"/>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="89"/>
+      <c r="AF21" s="89"/>
+      <c r="AG21" s="89"/>
+      <c r="AH21" s="89"/>
+      <c r="AI21" s="89"/>
+      <c r="AJ21" s="89"/>
+      <c r="AK21" s="89"/>
+      <c r="AL21" s="89"/>
+      <c r="AM21" s="89"/>
+      <c r="AN21" s="89"/>
+      <c r="AO21" s="90"/>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="89"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="89"/>
+      <c r="AJ22" s="89"/>
+      <c r="AK22" s="89"/>
+      <c r="AL22" s="89"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="89"/>
+      <c r="AO22" s="90"/>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="89"/>
+      <c r="AI23" s="89"/>
+      <c r="AJ23" s="89"/>
+      <c r="AK23" s="89"/>
+      <c r="AL23" s="89"/>
+      <c r="AM23" s="89"/>
+      <c r="AN23" s="89"/>
+      <c r="AO23" s="90"/>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="89"/>
+      <c r="AF24" s="89"/>
+      <c r="AG24" s="89"/>
+      <c r="AH24" s="89"/>
+      <c r="AI24" s="89"/>
+      <c r="AJ24" s="89"/>
+      <c r="AK24" s="89"/>
+      <c r="AL24" s="89"/>
+      <c r="AM24" s="89"/>
+      <c r="AN24" s="89"/>
+      <c r="AO24" s="90"/>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="89"/>
+      <c r="AG25" s="89"/>
+      <c r="AH25" s="89"/>
+      <c r="AI25" s="89"/>
+      <c r="AJ25" s="89"/>
+      <c r="AK25" s="89"/>
+      <c r="AL25" s="89"/>
+      <c r="AM25" s="89"/>
+      <c r="AN25" s="89"/>
+      <c r="AO25" s="90"/>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="89"/>
+      <c r="AF26" s="89"/>
+      <c r="AG26" s="89"/>
+      <c r="AH26" s="89"/>
+      <c r="AI26" s="89"/>
+      <c r="AJ26" s="89"/>
+      <c r="AK26" s="89"/>
+      <c r="AL26" s="89"/>
+      <c r="AM26" s="89"/>
+      <c r="AN26" s="89"/>
+      <c r="AO26" s="90"/>
+    </row>
+    <row r="27" spans="1:41">
+      <c r="A27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="89"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="89"/>
+      <c r="AI27" s="89"/>
+      <c r="AJ27" s="89"/>
+      <c r="AK27" s="89"/>
+      <c r="AL27" s="89"/>
+      <c r="AM27" s="89"/>
+      <c r="AN27" s="89"/>
+      <c r="AO27" s="90"/>
+    </row>
+    <row r="28" spans="1:41">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
+      <c r="AE28" s="89"/>
+      <c r="AF28" s="89"/>
+      <c r="AG28" s="89"/>
+      <c r="AH28" s="89"/>
+      <c r="AI28" s="89"/>
+      <c r="AJ28" s="89"/>
+      <c r="AK28" s="89"/>
+      <c r="AL28" s="89"/>
+      <c r="AM28" s="89"/>
+      <c r="AN28" s="89"/>
+      <c r="AO28" s="90"/>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="A29" s="59"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="89"/>
+      <c r="AD29" s="89"/>
+      <c r="AE29" s="89"/>
+      <c r="AF29" s="89"/>
+      <c r="AG29" s="89"/>
+      <c r="AH29" s="89"/>
+      <c r="AI29" s="89"/>
+      <c r="AJ29" s="89"/>
+      <c r="AK29" s="89"/>
+      <c r="AL29" s="89"/>
+      <c r="AM29" s="89"/>
+      <c r="AN29" s="89"/>
+      <c r="AO29" s="90"/>
+    </row>
+    <row r="30" spans="1:41" ht="11.4" thickBot="1">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
+      <c r="AB30" s="91"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="91"/>
+      <c r="AE30" s="91"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="91"/>
+      <c r="AH30" s="91"/>
+      <c r="AI30" s="91"/>
+      <c r="AJ30" s="91"/>
+      <c r="AK30" s="91"/>
+      <c r="AL30" s="91"/>
+      <c r="AM30" s="91"/>
+      <c r="AN30" s="91"/>
+      <c r="AO30" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="J11:AK11"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="J28:AK28"/>
-    <mergeCell ref="J29:AK29"/>
-    <mergeCell ref="J30:AK30"/>
+  <mergeCells count="116">
+    <mergeCell ref="N11:AO11"/>
+    <mergeCell ref="N6:AO6"/>
+    <mergeCell ref="N7:AO7"/>
+    <mergeCell ref="N8:AO8"/>
+    <mergeCell ref="N9:AO9"/>
+    <mergeCell ref="N10:AO10"/>
+    <mergeCell ref="N2:AO2"/>
+    <mergeCell ref="N3:AO3"/>
+    <mergeCell ref="N4:AO4"/>
+    <mergeCell ref="N5:AO5"/>
+    <mergeCell ref="N20:AO20"/>
+    <mergeCell ref="N21:AO21"/>
+    <mergeCell ref="N22:AO22"/>
+    <mergeCell ref="N13:AO13"/>
+    <mergeCell ref="N14:AO14"/>
+    <mergeCell ref="N15:AO15"/>
+    <mergeCell ref="N16:AO16"/>
+    <mergeCell ref="N17:AO17"/>
+    <mergeCell ref="N12:AO12"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="N28:AO28"/>
+    <mergeCell ref="N29:AO29"/>
+    <mergeCell ref="N30:AO30"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
@@ -12153,26 +12368,19 @@
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="N23:AO23"/>
+    <mergeCell ref="N24:AO24"/>
+    <mergeCell ref="N25:AO25"/>
+    <mergeCell ref="N26:AO26"/>
+    <mergeCell ref="N27:AO27"/>
+    <mergeCell ref="N18:AO18"/>
+    <mergeCell ref="N19:AO19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
@@ -12181,12 +12389,12 @@
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
@@ -12203,6 +12411,43 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -12215,129 +12460,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="59" customWidth="1"/>
-    <col min="3" max="5" width="37.6640625" style="59" customWidth="1"/>
-    <col min="6" max="16384" width="9.77734375" style="58"/>
+    <col min="1" max="1" width="5.44140625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="50" customWidth="1"/>
+    <col min="3" max="5" width="37.6640625" style="50" customWidth="1"/>
+    <col min="6" max="16384" width="9.77734375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="60" customFormat="1" ht="11.4"/>
-    <row r="2" spans="1:11" s="61" customFormat="1" ht="14.4">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-    </row>
-    <row r="3" spans="1:11" s="61" customFormat="1" ht="18.600000000000001">
-      <c r="B3" s="64" t="s">
+    <row r="1" spans="1:11" s="51" customFormat="1" ht="11.4"/>
+    <row r="2" spans="1:11" s="52" customFormat="1" ht="14.4">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" s="52" customFormat="1" ht="18.600000000000001">
+      <c r="B3" s="55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="52" customFormat="1" ht="14.4">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" s="52" customFormat="1" ht="16.2">
+      <c r="B5" s="56" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="61" customFormat="1" ht="14.4">
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-    </row>
-    <row r="5" spans="1:11" s="61" customFormat="1" ht="16.2">
-      <c r="B5" s="65" t="s">
+    <row r="6" spans="1:11" s="52" customFormat="1" thickBot="1"/>
+    <row r="7" spans="1:11" s="39" customFormat="1" ht="14.4">
+      <c r="A7" s="52"/>
+      <c r="B7" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="61" customFormat="1" thickBot="1"/>
-    <row r="7" spans="1:11" s="48" customFormat="1" ht="14.4">
-      <c r="A7" s="61"/>
-      <c r="B7" s="45" t="s">
+    <row r="8" spans="1:11" s="39" customFormat="1" ht="28.8">
+      <c r="A8" s="52"/>
+      <c r="B8" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="46" t="s">
+      <c r="D8" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E8" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="39" customFormat="1" thickBot="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:11" s="48" customFormat="1">
+      <c r="A10" s="57"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+    </row>
+    <row r="11" spans="1:11" s="52" customFormat="1" ht="14.4">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+    </row>
+    <row r="12" spans="1:11" s="52" customFormat="1" ht="16.2">
+      <c r="B12" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="50" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="48" customFormat="1" ht="28.8">
-      <c r="A8" s="61"/>
-      <c r="B8" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="48" customFormat="1" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-    </row>
-    <row r="10" spans="1:11" s="57" customFormat="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-    </row>
-    <row r="11" spans="1:11" s="61" customFormat="1" ht="14.4">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-    </row>
-    <row r="12" spans="1:11" s="61" customFormat="1" ht="16.2">
-      <c r="B12" s="65" t="s">
+    <row r="30" spans="1:11" s="50" customFormat="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="59" t="s">
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+    </row>
+    <row r="31" spans="1:11" s="50" customFormat="1">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="59" customFormat="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-    </row>
-    <row r="31" spans="1:11" s="59" customFormat="1">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="36"/>
@@ -12352,15 +12599,17 @@
     <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O1296"/>
+  <dimension ref="A1:O1297"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="3" customWidth="1"/>
     <col min="2" max="2" width="37.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="32.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.21875" style="3" customWidth="1"/>
     <col min="6" max="6" width="19" style="3" bestFit="1" customWidth="1"/>
@@ -12396,7 +12645,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -13321,7 +13570,7 @@
         <v>11</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="5"/>
@@ -13406,7 +13655,7 @@
         <v>36</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>25</v>
@@ -13417,17 +13666,25 @@
       <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
+      <c r="A90" s="124">
+        <v>10</v>
+      </c>
+      <c r="B90" s="125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="125" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="125" t="s">
+        <v>25</v>
+      </c>
       <c r="F90" s="5"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A91" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -13436,48 +13693,50 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A93" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A93" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E93" s="20"/>
+      <c r="D93" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B94" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="C94" s="5"/>
       <c r="D94" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
+      <c r="A95" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="19"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+      <c r="D95" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="20"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1">
@@ -13489,50 +13748,46 @@
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A98" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="13"/>
-    </row>
-    <row r="98" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="5"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
     </row>
     <row r="99" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A99" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
       <c r="C99" s="10"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="5"/>
@@ -13541,10 +13796,10 @@
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1">
       <c r="A101" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="5"/>
@@ -13553,7 +13808,7 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>14</v>
@@ -13564,17 +13819,19 @@
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A103" s="16"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="A103" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="10"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A104" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A104" s="16"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -13583,7 +13840,7 @@
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1">
       <c r="A105" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13592,53 +13849,53 @@
       <c r="F105" s="5"/>
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A107" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B107" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C107" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="D107" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E107" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A107" s="18">
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A108" s="18">
         <v>10</v>
       </c>
-      <c r="B107" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="15" t="s">
+      <c r="B108" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E108" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A109" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -13647,48 +13904,50 @@
     </row>
     <row r="110" spans="1:15" ht="15.75" customHeight="1">
       <c r="A110" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
     <row r="111" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A111" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>53</v>
-      </c>
+      <c r="A111" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E111" s="20"/>
+      <c r="D111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:15" ht="15.75" customHeight="1">
       <c r="A112" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B112" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="C112" s="5"/>
       <c r="D112" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+      <c r="A113" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B113" s="19"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
+      <c r="D113" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" s="20"/>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:15" ht="15.75" customHeight="1">
@@ -13700,50 +13959,46 @@
       <c r="F114" s="5"/>
     </row>
     <row r="115" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A116" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
-      <c r="O115" s="13"/>
-    </row>
-    <row r="116" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="5"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+      <c r="O116" s="13"/>
     </row>
     <row r="117" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A117" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
       <c r="C117" s="10"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
       <c r="F117" s="5"/>
     </row>
     <row r="118" spans="1:15" ht="15.75" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="5"/>
@@ -13752,10 +14007,10 @@
     </row>
     <row r="119" spans="1:15" ht="15.75" customHeight="1">
       <c r="A119" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="5"/>
@@ -13764,7 +14019,7 @@
     </row>
     <row r="120" spans="1:15" ht="15.75" customHeight="1">
       <c r="A120" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>14</v>
@@ -13775,17 +14030,19 @@
       <c r="F120" s="5"/>
     </row>
     <row r="121" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A121" s="16"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="A121" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="10"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
     <row r="122" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A122" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A122" s="16"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -13794,7 +14051,7 @@
     </row>
     <row r="123" spans="1:15" ht="15.75" customHeight="1">
       <c r="A123" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13803,53 +14060,53 @@
       <c r="F123" s="5"/>
     </row>
     <row r="124" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A124" s="17" t="s">
+      <c r="A124" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A125" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B125" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C125" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D124" s="17" t="s">
+      <c r="D125" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E124" s="17" t="s">
+      <c r="E125" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F124" s="5"/>
-    </row>
-    <row r="125" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A125" s="18">
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A126" s="18">
         <v>10</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B126" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C125" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D125" s="15" t="s">
+      <c r="C126" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E125" s="15" t="s">
+      <c r="E126" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F125" s="5"/>
-    </row>
-    <row r="126" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
     <row r="127" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A127" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -13858,48 +14115,50 @@
     </row>
     <row r="128" spans="1:15" ht="15.75" customHeight="1">
       <c r="A128" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A129" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A129" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" s="5"/>
       <c r="C129" s="5"/>
-      <c r="D129" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E129" s="20"/>
+      <c r="D129" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:15" ht="15.75" customHeight="1">
       <c r="A130" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B130" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C130" s="5"/>
       <c r="D130" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
+      <c r="A131" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" s="19"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
+      <c r="D131" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="20"/>
       <c r="F131" s="5"/>
     </row>
     <row r="132" spans="1:15" ht="15.75" customHeight="1">
@@ -13911,50 +14170,46 @@
       <c r="F132" s="5"/>
     </row>
     <row r="133" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A134" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="13"/>
-      <c r="M133" s="13"/>
-      <c r="N133" s="13"/>
-      <c r="O133" s="13"/>
-    </row>
-    <row r="134" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="5"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
+      <c r="O134" s="13"/>
     </row>
     <row r="135" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A135" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
       <c r="C135" s="10"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
       <c r="F135" s="5"/>
     </row>
     <row r="136" spans="1:15" ht="15.75" customHeight="1">
       <c r="A136" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="5"/>
@@ -13963,10 +14218,10 @@
     </row>
     <row r="137" spans="1:15" ht="15.75" customHeight="1">
       <c r="A137" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="5"/>
@@ -13975,7 +14230,7 @@
     </row>
     <row r="138" spans="1:15" ht="15.75" customHeight="1">
       <c r="A138" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>14</v>
@@ -13986,17 +14241,19 @@
       <c r="F138" s="5"/>
     </row>
     <row r="139" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A139" s="16"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
+      <c r="A139" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="10"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
     <row r="140" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A140" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A140" s="16"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -14005,7 +14262,7 @@
     </row>
     <row r="141" spans="1:15" ht="15.75" customHeight="1">
       <c r="A141" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14014,53 +14271,53 @@
       <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A142" s="17" t="s">
+      <c r="A142" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A143" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B143" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C143" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="17" t="s">
+      <c r="D143" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E142" s="17" t="s">
+      <c r="E143" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A143" s="18">
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A144" s="18">
         <v>10</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B144" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C143" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D143" s="15" t="s">
+      <c r="C144" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D144" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E143" s="15" t="s">
+      <c r="E144" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F143" s="5"/>
-    </row>
-    <row r="144" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
     <row r="145" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A145" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -14069,48 +14326,50 @@
     </row>
     <row r="146" spans="1:15" ht="15.75" customHeight="1">
       <c r="A146" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
-      <c r="D146" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
     <row r="147" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A147" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A147" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E147" s="20"/>
+      <c r="D147" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
     <row r="148" spans="1:15" ht="15.75" customHeight="1">
       <c r="A148" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B148" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C148" s="5"/>
       <c r="D148" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="5"/>
     </row>
     <row r="149" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
+      <c r="A149" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B149" s="19"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
+      <c r="D149" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E149" s="20"/>
       <c r="F149" s="5"/>
     </row>
     <row r="150" spans="1:15" ht="15.75" customHeight="1">
@@ -14122,50 +14381,46 @@
       <c r="F150" s="5"/>
     </row>
     <row r="151" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A152" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13"/>
-      <c r="I151" s="13"/>
-      <c r="J151" s="13"/>
-      <c r="K151" s="13"/>
-      <c r="L151" s="13"/>
-      <c r="M151" s="13"/>
-      <c r="N151" s="13"/>
-      <c r="O151" s="13"/>
-    </row>
-    <row r="152" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="5"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="13"/>
+      <c r="M152" s="13"/>
+      <c r="N152" s="13"/>
+      <c r="O152" s="13"/>
     </row>
     <row r="153" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A153" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
       <c r="C153" s="10"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
       <c r="F153" s="5"/>
     </row>
     <row r="154" spans="1:15" ht="15.75" customHeight="1">
       <c r="A154" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="5"/>
@@ -14174,10 +14429,10 @@
     </row>
     <row r="155" spans="1:15" ht="15.75" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="5"/>
@@ -14186,7 +14441,7 @@
     </row>
     <row r="156" spans="1:15" ht="15.75" customHeight="1">
       <c r="A156" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B156" s="15" t="s">
         <v>14</v>
@@ -14197,17 +14452,19 @@
       <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A157" s="16"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
+      <c r="A157" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="10"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
     <row r="158" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A158" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A158" s="16"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -14216,7 +14473,7 @@
     </row>
     <row r="159" spans="1:15" ht="15.75" customHeight="1">
       <c r="A159" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -14225,53 +14482,53 @@
       <c r="F159" s="5"/>
     </row>
     <row r="160" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A160" s="17" t="s">
+      <c r="A160" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A161" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B161" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C161" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D160" s="17" t="s">
+      <c r="D161" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E160" s="17" t="s">
+      <c r="E161" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F160" s="5"/>
-    </row>
-    <row r="161" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A161" s="18">
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A162" s="18">
         <v>10</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B162" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C161" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D161" s="15" t="s">
+      <c r="C162" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D162" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="15" t="s">
+      <c r="E162" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F161" s="5"/>
-    </row>
-    <row r="162" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
     <row r="163" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A163" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -14280,48 +14537,50 @@
     </row>
     <row r="164" spans="1:15" ht="15.75" customHeight="1">
       <c r="A164" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
     <row r="165" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A165" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B165" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A165" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E165" s="20"/>
+      <c r="D165" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:15" ht="15.75" customHeight="1">
       <c r="A166" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B166" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="C166" s="5"/>
       <c r="D166" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
+      <c r="A167" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" s="19"/>
       <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
+      <c r="D167" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E167" s="20"/>
       <c r="F167" s="5"/>
     </row>
     <row r="168" spans="1:15" ht="15.75" customHeight="1">
@@ -14333,50 +14592,46 @@
       <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A170" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="13"/>
-      <c r="J169" s="13"/>
-      <c r="K169" s="13"/>
-      <c r="L169" s="13"/>
-      <c r="M169" s="13"/>
-      <c r="N169" s="13"/>
-      <c r="O169" s="13"/>
-    </row>
-    <row r="170" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="5"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="13"/>
+      <c r="K170" s="13"/>
+      <c r="L170" s="13"/>
+      <c r="M170" s="13"/>
+      <c r="N170" s="13"/>
+      <c r="O170" s="13"/>
     </row>
     <row r="171" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A171" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
       <c r="C171" s="10"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
       <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:15" ht="15.75" customHeight="1">
       <c r="A172" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="5"/>
@@ -14385,10 +14640,10 @@
     </row>
     <row r="173" spans="1:15" ht="15.75" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="5"/>
@@ -14397,7 +14652,7 @@
     </row>
     <row r="174" spans="1:15" ht="15.75" customHeight="1">
       <c r="A174" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B174" s="15" t="s">
         <v>14</v>
@@ -14408,17 +14663,19 @@
       <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A175" s="16"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
+      <c r="A175" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="10"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
     <row r="176" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A176" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A176" s="16"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -14427,7 +14684,7 @@
     </row>
     <row r="177" spans="1:15" ht="15.75" customHeight="1">
       <c r="A177" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -14436,53 +14693,53 @@
       <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A178" s="17" t="s">
+      <c r="A178" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A179" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B178" s="17" t="s">
+      <c r="B179" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="C179" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D178" s="17" t="s">
+      <c r="D179" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E178" s="17" t="s">
+      <c r="E179" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F178" s="5"/>
-    </row>
-    <row r="179" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A179" s="18">
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A180" s="18">
         <v>10</v>
       </c>
-      <c r="B179" s="15" t="s">
+      <c r="B180" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C179" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D179" s="15" t="s">
+      <c r="C180" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D180" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E179" s="15" t="s">
+      <c r="E180" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F179" s="5"/>
-    </row>
-    <row r="180" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
       <c r="F180" s="5"/>
     </row>
     <row r="181" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A181" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -14491,48 +14748,50 @@
     </row>
     <row r="182" spans="1:15" ht="15.75" customHeight="1">
       <c r="A182" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
     </row>
     <row r="183" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A183" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B183" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A183" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B183" s="5"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E183" s="20"/>
+      <c r="D183" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
     <row r="184" spans="1:15" ht="15.75" customHeight="1">
       <c r="A184" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B184" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="C184" s="5"/>
       <c r="D184" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E184" s="20"/>
       <c r="F184" s="5"/>
     </row>
     <row r="185" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
+      <c r="A185" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B185" s="19"/>
       <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
+      <c r="D185" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185" s="20"/>
       <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:15" ht="15.75" customHeight="1">
@@ -14544,50 +14803,46 @@
       <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A187" s="11" t="s">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+    </row>
+    <row r="188" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A188" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="13"/>
-      <c r="H187" s="13"/>
-      <c r="I187" s="13"/>
-      <c r="J187" s="13"/>
-      <c r="K187" s="13"/>
-      <c r="L187" s="13"/>
-      <c r="M187" s="13"/>
-      <c r="N187" s="13"/>
-      <c r="O187" s="13"/>
-    </row>
-    <row r="188" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A188" s="10"/>
-      <c r="B188" s="10"/>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="5"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="13"/>
+      <c r="K188" s="13"/>
+      <c r="L188" s="13"/>
+      <c r="M188" s="13"/>
+      <c r="N188" s="13"/>
+      <c r="O188" s="13"/>
     </row>
     <row r="189" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A189" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
       <c r="C189" s="10"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
       <c r="F189" s="5"/>
     </row>
     <row r="190" spans="1:15" ht="15.75" customHeight="1">
       <c r="A190" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="5"/>
@@ -14596,10 +14851,10 @@
     </row>
     <row r="191" spans="1:15" ht="15.75" customHeight="1">
       <c r="A191" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="5"/>
@@ -14608,7 +14863,7 @@
     </row>
     <row r="192" spans="1:15" ht="15.75" customHeight="1">
       <c r="A192" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B192" s="15" t="s">
         <v>14</v>
@@ -14619,17 +14874,19 @@
       <c r="F192" s="5"/>
     </row>
     <row r="193" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A193" s="16"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
+      <c r="A193" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="10"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
     </row>
     <row r="194" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A194" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A194" s="16"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -14638,7 +14895,7 @@
     </row>
     <row r="195" spans="1:15" ht="15.75" customHeight="1">
       <c r="A195" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -14647,53 +14904,53 @@
       <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A196" s="17" t="s">
+      <c r="A196" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+    </row>
+    <row r="197" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A197" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B196" s="17" t="s">
+      <c r="B197" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C197" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D196" s="17" t="s">
+      <c r="D197" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E196" s="17" t="s">
+      <c r="E197" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F196" s="5"/>
-    </row>
-    <row r="197" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A197" s="18">
+      <c r="F197" s="5"/>
+    </row>
+    <row r="198" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A198" s="18">
         <v>10</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="B198" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C197" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D197" s="15" t="s">
+      <c r="C198" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D198" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E197" s="15" t="s">
+      <c r="E198" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F197" s="5"/>
-    </row>
-    <row r="198" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
       <c r="F198" s="5"/>
     </row>
     <row r="199" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A199" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -14702,48 +14959,50 @@
     </row>
     <row r="200" spans="1:15" ht="15.75" customHeight="1">
       <c r="A200" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
     </row>
     <row r="201" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A201" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B201" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A201" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B201" s="5"/>
       <c r="C201" s="5"/>
-      <c r="D201" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E201" s="20"/>
+      <c r="D201" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E201" s="5"/>
       <c r="F201" s="5"/>
     </row>
     <row r="202" spans="1:15" ht="15.75" customHeight="1">
       <c r="A202" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B202" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="C202" s="5"/>
       <c r="D202" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E202" s="20"/>
       <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
+      <c r="A203" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B203" s="19"/>
       <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
+      <c r="D203" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E203" s="20"/>
       <c r="F203" s="5"/>
     </row>
     <row r="204" spans="1:15" ht="15.75" customHeight="1">
@@ -14755,50 +15014,46 @@
       <c r="F204" s="5"/>
     </row>
     <row r="205" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A205" s="11" t="s">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+    </row>
+    <row r="206" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A206" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B205" s="11"/>
-      <c r="C205" s="11"/>
-      <c r="D205" s="11"/>
-      <c r="E205" s="12"/>
-      <c r="F205" s="12"/>
-      <c r="G205" s="13"/>
-      <c r="H205" s="13"/>
-      <c r="I205" s="13"/>
-      <c r="J205" s="13"/>
-      <c r="K205" s="13"/>
-      <c r="L205" s="13"/>
-      <c r="M205" s="13"/>
-      <c r="N205" s="13"/>
-      <c r="O205" s="13"/>
-    </row>
-    <row r="206" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A206" s="10"/>
-      <c r="B206" s="10"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="5"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="13"/>
+      <c r="H206" s="13"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="13"/>
+      <c r="K206" s="13"/>
+      <c r="L206" s="13"/>
+      <c r="M206" s="13"/>
+      <c r="N206" s="13"/>
+      <c r="O206" s="13"/>
     </row>
     <row r="207" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A207" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B207" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
       <c r="C207" s="10"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
       <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:15" ht="15.75" customHeight="1">
       <c r="A208" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="5"/>
@@ -14807,10 +15062,10 @@
     </row>
     <row r="209" spans="1:15" ht="15.75" customHeight="1">
       <c r="A209" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C209" s="10"/>
       <c r="D209" s="5"/>
@@ -14819,7 +15074,7 @@
     </row>
     <row r="210" spans="1:15" ht="15.75" customHeight="1">
       <c r="A210" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B210" s="15" t="s">
         <v>14</v>
@@ -14830,17 +15085,19 @@
       <c r="F210" s="5"/>
     </row>
     <row r="211" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A211" s="16"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
+      <c r="A211" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="10"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
     </row>
     <row r="212" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A212" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A212" s="16"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
@@ -14849,7 +15106,7 @@
     </row>
     <row r="213" spans="1:15" ht="15.75" customHeight="1">
       <c r="A213" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -14858,53 +15115,53 @@
       <c r="F213" s="5"/>
     </row>
     <row r="214" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+    </row>
+    <row r="215" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A215" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B214" s="17" t="s">
+      <c r="B215" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C214" s="17" t="s">
+      <c r="C215" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D214" s="17" t="s">
+      <c r="D215" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E214" s="17" t="s">
+      <c r="E215" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F214" s="5"/>
-    </row>
-    <row r="215" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A215" s="18">
+      <c r="F215" s="5"/>
+    </row>
+    <row r="216" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A216" s="18">
         <v>10</v>
       </c>
-      <c r="B215" s="15" t="s">
+      <c r="B216" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C215" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D215" s="15" t="s">
+      <c r="C216" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D216" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E215" s="15" t="s">
+      <c r="E216" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F215" s="5"/>
-    </row>
-    <row r="216" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
       <c r="F216" s="5"/>
     </row>
     <row r="217" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A217" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
@@ -14913,48 +15170,50 @@
     </row>
     <row r="218" spans="1:15" ht="15.75" customHeight="1">
       <c r="A218" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
-      <c r="D218" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D218" s="5"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
     </row>
     <row r="219" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A219" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B219" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A219" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B219" s="5"/>
       <c r="C219" s="5"/>
-      <c r="D219" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E219" s="20"/>
+      <c r="D219" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="5"/>
       <c r="F219" s="5"/>
     </row>
     <row r="220" spans="1:15" ht="15.75" customHeight="1">
       <c r="A220" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B220" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C220" s="5"/>
       <c r="D220" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E220" s="20"/>
       <c r="F220" s="5"/>
     </row>
     <row r="221" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
+      <c r="A221" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B221" s="19"/>
       <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
+      <c r="D221" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E221" s="20"/>
       <c r="F221" s="5"/>
     </row>
     <row r="222" spans="1:15" ht="15.75" customHeight="1">
@@ -14966,50 +15225,46 @@
       <c r="F222" s="5"/>
     </row>
     <row r="223" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A223" s="11" t="s">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+    </row>
+    <row r="224" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A224" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B223" s="11"/>
-      <c r="C223" s="11"/>
-      <c r="D223" s="11"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
-      <c r="G223" s="13"/>
-      <c r="H223" s="13"/>
-      <c r="I223" s="13"/>
-      <c r="J223" s="13"/>
-      <c r="K223" s="13"/>
-      <c r="L223" s="13"/>
-      <c r="M223" s="13"/>
-      <c r="N223" s="13"/>
-      <c r="O223" s="13"/>
-    </row>
-    <row r="224" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A224" s="10"/>
-      <c r="B224" s="10"/>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="10"/>
-      <c r="F224" s="5"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="13"/>
+      <c r="H224" s="13"/>
+      <c r="I224" s="13"/>
+      <c r="J224" s="13"/>
+      <c r="K224" s="13"/>
+      <c r="L224" s="13"/>
+      <c r="M224" s="13"/>
+      <c r="N224" s="13"/>
+      <c r="O224" s="13"/>
     </row>
     <row r="225" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A225" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B225" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
       <c r="C225" s="10"/>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
       <c r="F225" s="5"/>
     </row>
     <row r="226" spans="1:6" ht="15.75" customHeight="1">
       <c r="A226" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="5"/>
@@ -15018,10 +15273,10 @@
     </row>
     <row r="227" spans="1:6" ht="15.75" customHeight="1">
       <c r="A227" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="5"/>
@@ -15030,7 +15285,7 @@
     </row>
     <row r="228" spans="1:6" ht="15.75" customHeight="1">
       <c r="A228" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B228" s="15" t="s">
         <v>14</v>
@@ -15041,17 +15296,19 @@
       <c r="F228" s="5"/>
     </row>
     <row r="229" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A229" s="16"/>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
+      <c r="A229" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="10"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
     </row>
     <row r="230" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A230" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A230" s="16"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
@@ -15060,7 +15317,7 @@
     </row>
     <row r="231" spans="1:6" ht="15.75" customHeight="1">
       <c r="A231" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -15069,53 +15326,53 @@
       <c r="F231" s="5"/>
     </row>
     <row r="232" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A232" s="17" t="s">
+      <c r="A232" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+    </row>
+    <row r="233" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A233" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B232" s="17" t="s">
+      <c r="B233" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C232" s="17" t="s">
+      <c r="C233" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D232" s="17" t="s">
+      <c r="D233" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E232" s="17" t="s">
+      <c r="E233" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F232" s="5"/>
-    </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A233" s="18">
+      <c r="F233" s="5"/>
+    </row>
+    <row r="234" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A234" s="18">
         <v>10</v>
       </c>
-      <c r="B233" s="15" t="s">
+      <c r="B234" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C233" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D233" s="15" t="s">
+      <c r="C234" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D234" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E233" s="15" t="s">
+      <c r="E234" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F233" s="5"/>
-    </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A234" s="5"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
       <c r="F234" s="5"/>
     </row>
     <row r="235" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A235" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
@@ -15124,48 +15381,50 @@
     </row>
     <row r="236" spans="1:6" ht="15.75" customHeight="1">
       <c r="A236" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
-      <c r="D236" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
     </row>
     <row r="237" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A237" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B237" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A237" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B237" s="5"/>
       <c r="C237" s="5"/>
-      <c r="D237" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E237" s="20"/>
+      <c r="D237" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E237" s="5"/>
       <c r="F237" s="5"/>
     </row>
     <row r="238" spans="1:6" ht="15.75" customHeight="1">
       <c r="A238" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B238" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B238" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C238" s="5"/>
       <c r="D238" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="5"/>
     </row>
     <row r="239" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A239" s="5"/>
-      <c r="B239" s="5"/>
+      <c r="A239" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B239" s="19"/>
       <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
+      <c r="D239" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E239" s="20"/>
       <c r="F239" s="5"/>
     </row>
     <row r="240" spans="1:6" ht="15.75" customHeight="1">
@@ -15177,50 +15436,46 @@
       <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A241" s="11" t="s">
+      <c r="A241" s="5"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+    </row>
+    <row r="242" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A242" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
-      <c r="D241" s="11"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="12"/>
-      <c r="G241" s="13"/>
-      <c r="H241" s="13"/>
-      <c r="I241" s="13"/>
-      <c r="J241" s="13"/>
-      <c r="K241" s="13"/>
-      <c r="L241" s="13"/>
-      <c r="M241" s="13"/>
-      <c r="N241" s="13"/>
-      <c r="O241" s="13"/>
-    </row>
-    <row r="242" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A242" s="10"/>
-      <c r="B242" s="10"/>
-      <c r="C242" s="10"/>
-      <c r="D242" s="10"/>
-      <c r="E242" s="10"/>
-      <c r="F242" s="5"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="12"/>
+      <c r="F242" s="12"/>
+      <c r="G242" s="13"/>
+      <c r="H242" s="13"/>
+      <c r="I242" s="13"/>
+      <c r="J242" s="13"/>
+      <c r="K242" s="13"/>
+      <c r="L242" s="13"/>
+      <c r="M242" s="13"/>
+      <c r="N242" s="13"/>
+      <c r="O242" s="13"/>
     </row>
     <row r="243" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A243" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B243" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="A243" s="10"/>
+      <c r="B243" s="10"/>
       <c r="C243" s="10"/>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
       <c r="F243" s="5"/>
     </row>
     <row r="244" spans="1:15" ht="15.75" customHeight="1">
       <c r="A244" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="5"/>
@@ -15229,10 +15484,10 @@
     </row>
     <row r="245" spans="1:15" ht="15.75" customHeight="1">
       <c r="A245" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="5"/>
@@ -15241,7 +15496,7 @@
     </row>
     <row r="246" spans="1:15" ht="15.75" customHeight="1">
       <c r="A246" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B246" s="15" t="s">
         <v>14</v>
@@ -15252,17 +15507,19 @@
       <c r="F246" s="5"/>
     </row>
     <row r="247" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A247" s="16"/>
-      <c r="B247" s="5"/>
-      <c r="C247" s="5"/>
+      <c r="A247" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="10"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
     </row>
     <row r="248" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A248" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A248" s="16"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
@@ -15271,7 +15528,7 @@
     </row>
     <row r="249" spans="1:15" ht="15.75" customHeight="1">
       <c r="A249" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -15280,53 +15537,53 @@
       <c r="F249" s="5"/>
     </row>
     <row r="250" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A250" s="17" t="s">
+      <c r="A250" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+    </row>
+    <row r="251" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A251" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B250" s="17" t="s">
+      <c r="B251" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C250" s="17" t="s">
+      <c r="C251" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D250" s="17" t="s">
+      <c r="D251" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E250" s="17" t="s">
+      <c r="E251" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F250" s="5"/>
-    </row>
-    <row r="251" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A251" s="18">
+      <c r="F251" s="5"/>
+    </row>
+    <row r="252" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A252" s="18">
         <v>10</v>
       </c>
-      <c r="B251" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C251" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D251" s="15" t="s">
+      <c r="B252" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C252" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D252" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E251" s="15" t="s">
+      <c r="E252" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F251" s="5"/>
-    </row>
-    <row r="252" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A252" s="5"/>
-      <c r="B252" s="5"/>
-      <c r="C252" s="5"/>
-      <c r="D252" s="5"/>
-      <c r="E252" s="5"/>
       <c r="F252" s="5"/>
     </row>
     <row r="253" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A253" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
@@ -15335,48 +15592,50 @@
     </row>
     <row r="254" spans="1:15" ht="15.75" customHeight="1">
       <c r="A254" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
-      <c r="D254" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D254" s="5"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
     </row>
     <row r="255" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A255" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B255" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A255" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B255" s="5"/>
       <c r="C255" s="5"/>
-      <c r="D255" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E255" s="20"/>
+      <c r="D255" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="5"/>
       <c r="F255" s="5"/>
     </row>
     <row r="256" spans="1:15" ht="15.75" customHeight="1">
       <c r="A256" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B256" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B256" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C256" s="5"/>
       <c r="D256" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="5"/>
     </row>
     <row r="257" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A257" s="5"/>
-      <c r="B257" s="5"/>
+      <c r="A257" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B257" s="19"/>
       <c r="C257" s="5"/>
-      <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
+      <c r="D257" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E257" s="20"/>
       <c r="F257" s="5"/>
     </row>
     <row r="258" spans="1:15" ht="15.75" customHeight="1">
@@ -15388,50 +15647,46 @@
       <c r="F258" s="5"/>
     </row>
     <row r="259" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A259" s="11" t="s">
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+    </row>
+    <row r="260" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A260" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
-      <c r="D259" s="11"/>
-      <c r="E259" s="12"/>
-      <c r="F259" s="12"/>
-      <c r="G259" s="13"/>
-      <c r="H259" s="13"/>
-      <c r="I259" s="13"/>
-      <c r="J259" s="13"/>
-      <c r="K259" s="13"/>
-      <c r="L259" s="13"/>
-      <c r="M259" s="13"/>
-      <c r="N259" s="13"/>
-      <c r="O259" s="13"/>
-    </row>
-    <row r="260" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A260" s="10"/>
-      <c r="B260" s="10"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
-      <c r="E260" s="10"/>
-      <c r="F260" s="5"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12"/>
+      <c r="G260" s="13"/>
+      <c r="H260" s="13"/>
+      <c r="I260" s="13"/>
+      <c r="J260" s="13"/>
+      <c r="K260" s="13"/>
+      <c r="L260" s="13"/>
+      <c r="M260" s="13"/>
+      <c r="N260" s="13"/>
+      <c r="O260" s="13"/>
     </row>
     <row r="261" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A261" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B261" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="A261" s="10"/>
+      <c r="B261" s="10"/>
       <c r="C261" s="10"/>
-      <c r="D261" s="5"/>
-      <c r="E261" s="5"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="10"/>
       <c r="F261" s="5"/>
     </row>
     <row r="262" spans="1:15" ht="15.75" customHeight="1">
       <c r="A262" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="5"/>
@@ -15440,10 +15695,10 @@
     </row>
     <row r="263" spans="1:15" ht="15.75" customHeight="1">
       <c r="A263" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="5"/>
@@ -15452,7 +15707,7 @@
     </row>
     <row r="264" spans="1:15" ht="15.75" customHeight="1">
       <c r="A264" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B264" s="15" t="s">
         <v>14</v>
@@ -15463,17 +15718,19 @@
       <c r="F264" s="5"/>
     </row>
     <row r="265" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A265" s="16"/>
-      <c r="B265" s="5"/>
-      <c r="C265" s="5"/>
+      <c r="A265" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" s="10"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
     </row>
     <row r="266" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A266" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A266" s="16"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
@@ -15482,7 +15739,7 @@
     </row>
     <row r="267" spans="1:15" ht="15.75" customHeight="1">
       <c r="A267" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -15491,53 +15748,53 @@
       <c r="F267" s="5"/>
     </row>
     <row r="268" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A268" s="17" t="s">
+      <c r="A268" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+    </row>
+    <row r="269" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A269" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B268" s="17" t="s">
+      <c r="B269" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C268" s="17" t="s">
+      <c r="C269" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D268" s="17" t="s">
+      <c r="D269" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E268" s="17" t="s">
+      <c r="E269" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F268" s="5"/>
-    </row>
-    <row r="269" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A269" s="18">
+      <c r="F269" s="5"/>
+    </row>
+    <row r="270" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A270" s="18">
         <v>10</v>
       </c>
-      <c r="B269" s="15" t="s">
+      <c r="B270" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C269" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D269" s="15" t="s">
+      <c r="C270" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D270" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E269" s="15" t="s">
+      <c r="E270" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F269" s="5"/>
-    </row>
-    <row r="270" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A270" s="5"/>
-      <c r="B270" s="5"/>
-      <c r="C270" s="5"/>
-      <c r="D270" s="5"/>
-      <c r="E270" s="5"/>
       <c r="F270" s="5"/>
     </row>
     <row r="271" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A271" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
@@ -15546,48 +15803,50 @@
     </row>
     <row r="272" spans="1:15" ht="15.75" customHeight="1">
       <c r="A272" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
-      <c r="D272" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D272" s="5"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
     </row>
     <row r="273" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A273" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B273" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A273" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B273" s="5"/>
       <c r="C273" s="5"/>
-      <c r="D273" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E273" s="20"/>
+      <c r="D273" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
     <row r="274" spans="1:15" ht="15.75" customHeight="1">
       <c r="A274" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B274" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B274" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C274" s="5"/>
       <c r="D274" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="5"/>
     </row>
     <row r="275" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A275" s="5"/>
-      <c r="B275" s="5"/>
+      <c r="A275" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B275" s="19"/>
       <c r="C275" s="5"/>
-      <c r="D275" s="5"/>
-      <c r="E275" s="5"/>
+      <c r="D275" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E275" s="20"/>
       <c r="F275" s="5"/>
     </row>
     <row r="276" spans="1:15" ht="15.75" customHeight="1">
@@ -15599,50 +15858,46 @@
       <c r="F276" s="5"/>
     </row>
     <row r="277" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A277" s="11" t="s">
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+    </row>
+    <row r="278" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A278" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B277" s="11"/>
-      <c r="C277" s="11"/>
-      <c r="D277" s="11"/>
-      <c r="E277" s="12"/>
-      <c r="F277" s="12"/>
-      <c r="G277" s="13"/>
-      <c r="H277" s="13"/>
-      <c r="I277" s="13"/>
-      <c r="J277" s="13"/>
-      <c r="K277" s="13"/>
-      <c r="L277" s="13"/>
-      <c r="M277" s="13"/>
-      <c r="N277" s="13"/>
-      <c r="O277" s="13"/>
-    </row>
-    <row r="278" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A278" s="10"/>
-      <c r="B278" s="10"/>
-      <c r="C278" s="10"/>
-      <c r="D278" s="10"/>
-      <c r="E278" s="10"/>
-      <c r="F278" s="5"/>
+      <c r="B278" s="11"/>
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="12"/>
+      <c r="F278" s="12"/>
+      <c r="G278" s="13"/>
+      <c r="H278" s="13"/>
+      <c r="I278" s="13"/>
+      <c r="J278" s="13"/>
+      <c r="K278" s="13"/>
+      <c r="L278" s="13"/>
+      <c r="M278" s="13"/>
+      <c r="N278" s="13"/>
+      <c r="O278" s="13"/>
     </row>
     <row r="279" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A279" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B279" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="A279" s="10"/>
+      <c r="B279" s="10"/>
       <c r="C279" s="10"/>
-      <c r="D279" s="5"/>
-      <c r="E279" s="5"/>
+      <c r="D279" s="10"/>
+      <c r="E279" s="10"/>
       <c r="F279" s="5"/>
     </row>
     <row r="280" spans="1:15" ht="15.75" customHeight="1">
       <c r="A280" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C280" s="10"/>
       <c r="D280" s="5"/>
@@ -15651,10 +15906,10 @@
     </row>
     <row r="281" spans="1:15" ht="15.75" customHeight="1">
       <c r="A281" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C281" s="10"/>
       <c r="D281" s="5"/>
@@ -15663,7 +15918,7 @@
     </row>
     <row r="282" spans="1:15" ht="15.75" customHeight="1">
       <c r="A282" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B282" s="15" t="s">
         <v>14</v>
@@ -15674,17 +15929,19 @@
       <c r="F282" s="5"/>
     </row>
     <row r="283" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A283" s="16"/>
-      <c r="B283" s="5"/>
-      <c r="C283" s="5"/>
+      <c r="A283" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283" s="10"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
     </row>
     <row r="284" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A284" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A284" s="16"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
@@ -15693,7 +15950,7 @@
     </row>
     <row r="285" spans="1:15" ht="15.75" customHeight="1">
       <c r="A285" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -15702,53 +15959,53 @@
       <c r="F285" s="5"/>
     </row>
     <row r="286" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A286" s="17" t="s">
+      <c r="A286" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+    </row>
+    <row r="287" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A287" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B286" s="17" t="s">
+      <c r="B287" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C286" s="17" t="s">
+      <c r="C287" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D286" s="17" t="s">
+      <c r="D287" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E286" s="17" t="s">
+      <c r="E287" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F286" s="5"/>
-    </row>
-    <row r="287" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A287" s="18">
+      <c r="F287" s="5"/>
+    </row>
+    <row r="288" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A288" s="18">
         <v>10</v>
       </c>
-      <c r="B287" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C287" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D287" s="15" t="s">
+      <c r="B288" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D288" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E287" s="15" t="s">
+      <c r="E288" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F287" s="5"/>
-    </row>
-    <row r="288" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A288" s="5"/>
-      <c r="B288" s="5"/>
-      <c r="C288" s="5"/>
-      <c r="D288" s="5"/>
-      <c r="E288" s="5"/>
       <c r="F288" s="5"/>
     </row>
     <row r="289" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A289" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
@@ -15757,48 +16014,50 @@
     </row>
     <row r="290" spans="1:15" ht="15.75" customHeight="1">
       <c r="A290" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
-      <c r="D290" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D290" s="5"/>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
     </row>
     <row r="291" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A291" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B291" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A291" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B291" s="5"/>
       <c r="C291" s="5"/>
-      <c r="D291" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E291" s="20"/>
+      <c r="D291" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
     <row r="292" spans="1:15" ht="15.75" customHeight="1">
       <c r="A292" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B292" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B292" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="C292" s="5"/>
       <c r="D292" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="5"/>
     </row>
     <row r="293" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A293" s="5"/>
-      <c r="B293" s="5"/>
+      <c r="A293" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B293" s="19"/>
       <c r="C293" s="5"/>
-      <c r="D293" s="5"/>
-      <c r="E293" s="5"/>
+      <c r="D293" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E293" s="20"/>
       <c r="F293" s="5"/>
     </row>
     <row r="294" spans="1:15" ht="15.75" customHeight="1">
@@ -15810,50 +16069,46 @@
       <c r="F294" s="5"/>
     </row>
     <row r="295" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A295" s="11" t="s">
+      <c r="A295" s="5"/>
+      <c r="B295" s="5"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+    </row>
+    <row r="296" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A296" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B295" s="11"/>
-      <c r="C295" s="11"/>
-      <c r="D295" s="11"/>
-      <c r="E295" s="12"/>
-      <c r="F295" s="12"/>
-      <c r="G295" s="13"/>
-      <c r="H295" s="13"/>
-      <c r="I295" s="13"/>
-      <c r="J295" s="13"/>
-      <c r="K295" s="13"/>
-      <c r="L295" s="13"/>
-      <c r="M295" s="13"/>
-      <c r="N295" s="13"/>
-      <c r="O295" s="13"/>
-    </row>
-    <row r="296" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A296" s="10"/>
-      <c r="B296" s="10"/>
-      <c r="C296" s="10"/>
-      <c r="D296" s="10"/>
-      <c r="E296" s="10"/>
-      <c r="F296" s="5"/>
+      <c r="B296" s="11"/>
+      <c r="C296" s="11"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="12"/>
+      <c r="F296" s="12"/>
+      <c r="G296" s="13"/>
+      <c r="H296" s="13"/>
+      <c r="I296" s="13"/>
+      <c r="J296" s="13"/>
+      <c r="K296" s="13"/>
+      <c r="L296" s="13"/>
+      <c r="M296" s="13"/>
+      <c r="N296" s="13"/>
+      <c r="O296" s="13"/>
     </row>
     <row r="297" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A297" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B297" s="15" t="s">
-        <v>85</v>
-      </c>
+      <c r="A297" s="10"/>
+      <c r="B297" s="10"/>
       <c r="C297" s="10"/>
-      <c r="D297" s="5"/>
-      <c r="E297" s="5"/>
+      <c r="D297" s="10"/>
+      <c r="E297" s="10"/>
       <c r="F297" s="5"/>
     </row>
     <row r="298" spans="1:15" ht="15.75" customHeight="1">
       <c r="A298" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C298" s="10"/>
       <c r="D298" s="5"/>
@@ -15862,10 +16117,10 @@
     </row>
     <row r="299" spans="1:15" ht="15.75" customHeight="1">
       <c r="A299" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C299" s="10"/>
       <c r="D299" s="5"/>
@@ -15874,7 +16129,7 @@
     </row>
     <row r="300" spans="1:15" ht="15.75" customHeight="1">
       <c r="A300" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B300" s="15" t="s">
         <v>14</v>
@@ -15885,17 +16140,19 @@
       <c r="F300" s="5"/>
     </row>
     <row r="301" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A301" s="16"/>
-      <c r="B301" s="5"/>
-      <c r="C301" s="5"/>
+      <c r="A301" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B301" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C301" s="10"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
     </row>
     <row r="302" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A302" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A302" s="16"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
@@ -15904,7 +16161,7 @@
     </row>
     <row r="303" spans="1:15" ht="15.75" customHeight="1">
       <c r="A303" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -15913,53 +16170,53 @@
       <c r="F303" s="5"/>
     </row>
     <row r="304" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A304" s="17" t="s">
+      <c r="A304" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B304" s="5"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+    </row>
+    <row r="305" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A305" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B304" s="17" t="s">
+      <c r="B305" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="C305" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D304" s="17" t="s">
+      <c r="D305" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E304" s="17" t="s">
+      <c r="E305" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F304" s="5"/>
-    </row>
-    <row r="305" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A305" s="18">
+      <c r="F305" s="5"/>
+    </row>
+    <row r="306" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A306" s="18">
         <v>10</v>
       </c>
-      <c r="B305" s="15" t="s">
+      <c r="B306" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C305" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D305" s="15" t="s">
+      <c r="C306" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D306" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E305" s="15" t="s">
+      <c r="E306" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F305" s="5"/>
-    </row>
-    <row r="306" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A306" s="5"/>
-      <c r="B306" s="5"/>
-      <c r="C306" s="5"/>
-      <c r="D306" s="5"/>
-      <c r="E306" s="5"/>
       <c r="F306" s="5"/>
     </row>
     <row r="307" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A307" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
@@ -15968,48 +16225,50 @@
     </row>
     <row r="308" spans="1:15" ht="15.75" customHeight="1">
       <c r="A308" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
-      <c r="D308" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D308" s="5"/>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
     </row>
     <row r="309" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A309" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B309" s="19" t="s">
-        <v>53</v>
-      </c>
+      <c r="A309" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B309" s="5"/>
       <c r="C309" s="5"/>
-      <c r="D309" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E309" s="20"/>
+      <c r="D309" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E309" s="5"/>
       <c r="F309" s="5"/>
     </row>
     <row r="310" spans="1:15" ht="15.75" customHeight="1">
       <c r="A310" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B310" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B310" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="C310" s="5"/>
       <c r="D310" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="5"/>
     </row>
     <row r="311" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A311" s="5"/>
-      <c r="B311" s="5"/>
+      <c r="A311" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B311" s="19"/>
       <c r="C311" s="5"/>
-      <c r="D311" s="5"/>
-      <c r="E311" s="5"/>
+      <c r="D311" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E311" s="20"/>
       <c r="F311" s="5"/>
     </row>
     <row r="312" spans="1:15" ht="15.75" customHeight="1">
@@ -16020,51 +16279,47 @@
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
     </row>
-    <row r="313" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A313" s="11" t="s">
+    <row r="313" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A313" s="5"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+    </row>
+    <row r="314" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A314" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B313" s="11"/>
-      <c r="C313" s="11"/>
-      <c r="D313" s="11"/>
-      <c r="E313" s="12"/>
-      <c r="F313" s="12"/>
-      <c r="G313" s="21"/>
-      <c r="H313" s="21"/>
-      <c r="I313" s="21"/>
-      <c r="J313" s="21"/>
-      <c r="K313" s="21"/>
-      <c r="L313" s="21"/>
-      <c r="M313" s="21"/>
-      <c r="N313" s="21"/>
-      <c r="O313" s="21"/>
-    </row>
-    <row r="314" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A314" s="10"/>
-      <c r="B314" s="10"/>
-      <c r="C314" s="10"/>
-      <c r="D314" s="10"/>
-      <c r="E314" s="10"/>
-      <c r="F314" s="5"/>
+      <c r="B314" s="11"/>
+      <c r="C314" s="11"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="12"/>
+      <c r="F314" s="12"/>
+      <c r="G314" s="21"/>
+      <c r="H314" s="21"/>
+      <c r="I314" s="21"/>
+      <c r="J314" s="21"/>
+      <c r="K314" s="21"/>
+      <c r="L314" s="21"/>
+      <c r="M314" s="21"/>
+      <c r="N314" s="21"/>
+      <c r="O314" s="21"/>
     </row>
     <row r="315" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A315" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B315" s="23" t="s">
-        <v>88</v>
-      </c>
+      <c r="A315" s="10"/>
+      <c r="B315" s="10"/>
       <c r="C315" s="10"/>
-      <c r="D315" s="5"/>
-      <c r="E315" s="5"/>
+      <c r="D315" s="10"/>
+      <c r="E315" s="10"/>
       <c r="F315" s="5"/>
     </row>
     <row r="316" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A316" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C316" s="10"/>
       <c r="D316" s="5"/>
@@ -16073,10 +16328,10 @@
     </row>
     <row r="317" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A317" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C317" s="10"/>
       <c r="D317" s="5"/>
@@ -16085,7 +16340,7 @@
     </row>
     <row r="318" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A318" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B318" s="23" t="s">
         <v>14</v>
@@ -16096,17 +16351,19 @@
       <c r="F318" s="5"/>
     </row>
     <row r="319" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A319" s="24"/>
-      <c r="B319" s="5"/>
-      <c r="C319" s="5"/>
+      <c r="A319" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B319" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C319" s="10"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
     </row>
     <row r="320" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A320" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A320" s="24"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
@@ -16115,7 +16372,7 @@
     </row>
     <row r="321" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A321" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -16124,73 +16381,73 @@
       <c r="F321" s="5"/>
     </row>
     <row r="322" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A322" s="17" t="s">
+      <c r="A322" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+    </row>
+    <row r="323" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A323" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B322" s="17" t="s">
+      <c r="B323" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C322" s="17" t="s">
+      <c r="C323" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D322" s="17" t="s">
+      <c r="D323" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E322" s="17" t="s">
+      <c r="E323" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F322" s="5"/>
-    </row>
-    <row r="323" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A323" s="18">
+      <c r="F323" s="5"/>
+    </row>
+    <row r="324" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A324" s="18">
         <v>10</v>
       </c>
-      <c r="B323" s="23" t="s">
+      <c r="B324" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C323" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D323" s="23" t="s">
+      <c r="C324" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D324" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E324" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F324" s="5"/>
+    </row>
+    <row r="325" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A325" s="34">
+        <v>10</v>
+      </c>
+      <c r="B325" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E323" s="23" t="s">
+      <c r="C325" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D325" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E325" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F323" s="5"/>
-    </row>
-    <row r="324" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A324" s="43">
-        <v>10</v>
-      </c>
-      <c r="B324" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C324" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D324" s="44" t="s">
+      <c r="F325" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E324" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F324" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="325" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A325" s="5"/>
-      <c r="B325" s="5"/>
-      <c r="C325" s="5"/>
-      <c r="D325" s="5"/>
-      <c r="E325" s="5"/>
-      <c r="F325" s="5"/>
     </row>
     <row r="326" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A326" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
@@ -16199,48 +16456,50 @@
     </row>
     <row r="327" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A327" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
-      <c r="D327" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="D327" s="5"/>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
     </row>
     <row r="328" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A328" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B328" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A328" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B328" s="5"/>
       <c r="C328" s="5"/>
-      <c r="D328" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E328" s="20"/>
+      <c r="D328" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E328" s="5"/>
       <c r="F328" s="5"/>
     </row>
     <row r="329" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A329" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B329" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B329" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C329" s="5"/>
       <c r="D329" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E329" s="20"/>
       <c r="F329" s="5"/>
     </row>
     <row r="330" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A330" s="5"/>
-      <c r="B330" s="5"/>
+      <c r="A330" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B330" s="19"/>
       <c r="C330" s="5"/>
-      <c r="D330" s="5"/>
-      <c r="E330" s="5"/>
+      <c r="D330" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E330" s="20"/>
       <c r="F330" s="5"/>
     </row>
     <row r="331" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
@@ -16252,206 +16511,206 @@
       <c r="F331" s="5"/>
     </row>
     <row r="332" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A332" s="11" t="s">
+      <c r="A332" s="5"/>
+      <c r="B332" s="5"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+    </row>
+    <row r="333" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A333" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B332" s="11"/>
-      <c r="C332" s="11"/>
-      <c r="D332" s="11"/>
-      <c r="E332" s="12"/>
-      <c r="F332" s="12"/>
-      <c r="G332" s="21"/>
-      <c r="H332" s="21"/>
-      <c r="I332" s="21"/>
-      <c r="J332" s="21"/>
-      <c r="K332" s="21"/>
-      <c r="L332" s="21"/>
-      <c r="M332" s="21"/>
-      <c r="N332" s="21"/>
-      <c r="O332" s="21"/>
-    </row>
-    <row r="333" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A333" s="10"/>
-      <c r="B333" s="10"/>
-      <c r="C333" s="10"/>
-      <c r="D333" s="10"/>
-      <c r="E333" s="10"/>
-      <c r="F333" s="5"/>
+      <c r="B333" s="11"/>
+      <c r="C333" s="11"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="12"/>
+      <c r="F333" s="12"/>
+      <c r="G333" s="21"/>
+      <c r="H333" s="21"/>
+      <c r="I333" s="21"/>
+      <c r="J333" s="21"/>
+      <c r="K333" s="21"/>
+      <c r="L333" s="21"/>
+      <c r="M333" s="21"/>
+      <c r="N333" s="21"/>
+      <c r="O333" s="21"/>
     </row>
     <row r="334" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A334" s="34" t="s">
+      <c r="A334" s="10"/>
+      <c r="B334" s="10"/>
+      <c r="C334" s="10"/>
+      <c r="D334" s="10"/>
+      <c r="E334" s="10"/>
+      <c r="F334" s="5"/>
+    </row>
+    <row r="335" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A335" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B334" s="35" t="s">
+      <c r="B335" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C335" s="27"/>
+      <c r="D335" s="28"/>
+      <c r="E335" s="28"/>
+      <c r="F335" s="5"/>
+    </row>
+    <row r="336" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A336" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B336" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C334" s="36"/>
-      <c r="D334" s="37"/>
-      <c r="E334" s="37"/>
-      <c r="F334" s="5"/>
-    </row>
-    <row r="335" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A335" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B335" s="35" t="s">
+      <c r="C336" s="27"/>
+      <c r="D336" s="28"/>
+      <c r="E336" s="28"/>
+      <c r="F336" s="5"/>
+    </row>
+    <row r="337" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A337" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B337" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C337" s="27"/>
+      <c r="D337" s="28"/>
+      <c r="E337" s="28"/>
+      <c r="F337" s="5"/>
+    </row>
+    <row r="338" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A338" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B338" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C338" s="27"/>
+      <c r="D338" s="28"/>
+      <c r="E338" s="28"/>
+      <c r="F338" s="5"/>
+    </row>
+    <row r="339" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A339" s="29"/>
+      <c r="B339" s="28"/>
+      <c r="C339" s="28"/>
+      <c r="D339" s="28"/>
+      <c r="E339" s="28"/>
+      <c r="F339" s="5"/>
+    </row>
+    <row r="340" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A340" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B340" s="28"/>
+      <c r="C340" s="28"/>
+      <c r="D340" s="28"/>
+      <c r="E340" s="28"/>
+      <c r="F340" s="5"/>
+    </row>
+    <row r="341" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A341" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B341" s="28"/>
+      <c r="C341" s="28"/>
+      <c r="D341" s="28"/>
+      <c r="E341" s="28"/>
+      <c r="F341" s="5"/>
+    </row>
+    <row r="342" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A342" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B342" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C342" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D342" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E342" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F342" s="5"/>
+    </row>
+    <row r="343" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A343" s="31">
+        <v>10</v>
+      </c>
+      <c r="B343" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C335" s="36"/>
-      <c r="D335" s="37"/>
-      <c r="E335" s="37"/>
-      <c r="F335" s="5"/>
-    </row>
-    <row r="336" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A336" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B336" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C336" s="36"/>
-      <c r="D336" s="37"/>
-      <c r="E336" s="37"/>
-      <c r="F336" s="5"/>
-    </row>
-    <row r="337" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A337" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B337" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C337" s="36"/>
-      <c r="D337" s="37"/>
-      <c r="E337" s="37"/>
-      <c r="F337" s="5"/>
-    </row>
-    <row r="338" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A338" s="38"/>
-      <c r="B338" s="37"/>
-      <c r="C338" s="37"/>
-      <c r="D338" s="37"/>
-      <c r="E338" s="37"/>
-      <c r="F338" s="5"/>
-    </row>
-    <row r="339" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A339" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B339" s="37"/>
-      <c r="C339" s="37"/>
-      <c r="D339" s="37"/>
-      <c r="E339" s="37"/>
-      <c r="F339" s="5"/>
-    </row>
-    <row r="340" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A340" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B340" s="37"/>
-      <c r="C340" s="37"/>
-      <c r="D340" s="37"/>
-      <c r="E340" s="37"/>
-      <c r="F340" s="5"/>
-    </row>
-    <row r="341" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A341" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B341" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C341" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D341" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E341" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F341" s="5"/>
-    </row>
-    <row r="342" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A342" s="40">
-        <v>10</v>
-      </c>
-      <c r="B342" s="35" t="s">
+      <c r="C343" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D343" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E343" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F343" s="5"/>
+    </row>
+    <row r="344" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A344" s="28"/>
+      <c r="B344" s="28"/>
+      <c r="C344" s="28"/>
+      <c r="D344" s="28"/>
+      <c r="E344" s="28"/>
+      <c r="F344" s="5"/>
+    </row>
+    <row r="345" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A345" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B345" s="28"/>
+      <c r="C345" s="28"/>
+      <c r="D345" s="28"/>
+      <c r="E345" s="28"/>
+      <c r="F345" s="5"/>
+    </row>
+    <row r="346" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A346" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B346" s="28"/>
+      <c r="C346" s="28"/>
+      <c r="D346" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C342" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D342" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E342" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F342" s="5"/>
-    </row>
-    <row r="343" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A343" s="37"/>
-      <c r="B343" s="37"/>
-      <c r="C343" s="37"/>
-      <c r="D343" s="37"/>
-      <c r="E343" s="37"/>
-      <c r="F343" s="5"/>
-    </row>
-    <row r="344" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A344" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B344" s="37"/>
-      <c r="C344" s="37"/>
-      <c r="D344" s="37"/>
-      <c r="E344" s="37"/>
-      <c r="F344" s="5"/>
-    </row>
-    <row r="345" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A345" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B345" s="37"/>
-      <c r="C345" s="37"/>
-      <c r="D345" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E345" s="37"/>
-      <c r="F345" s="5"/>
-    </row>
-    <row r="346" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A346" s="39" t="s">
+      <c r="E346" s="28"/>
+      <c r="F346" s="5"/>
+    </row>
+    <row r="347" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A347" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B346" s="41" t="s">
+      <c r="B347" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C346" s="37"/>
-      <c r="D346" s="39" t="s">
+      <c r="C347" s="28"/>
+      <c r="D347" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E346" s="42"/>
-      <c r="F346" s="5"/>
-    </row>
-    <row r="347" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A347" s="39" t="s">
+      <c r="E347" s="33"/>
+      <c r="F347" s="5"/>
+    </row>
+    <row r="348" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A348" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B347" s="41"/>
-      <c r="C347" s="37"/>
-      <c r="D347" s="39" t="s">
+      <c r="B348" s="32"/>
+      <c r="C348" s="28"/>
+      <c r="D348" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E347" s="42"/>
-      <c r="F347" s="5"/>
-    </row>
-    <row r="348" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A348" s="5"/>
-      <c r="B348" s="5"/>
-      <c r="C348" s="5"/>
-      <c r="D348" s="5"/>
-      <c r="E348" s="5"/>
+      <c r="E348" s="33"/>
       <c r="F348" s="5"/>
     </row>
     <row r="349" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
@@ -16463,206 +16722,206 @@
       <c r="F349" s="5"/>
     </row>
     <row r="350" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A350" s="11" t="s">
+      <c r="A350" s="5"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
+    </row>
+    <row r="351" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A351" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B350" s="11"/>
-      <c r="C350" s="11"/>
-      <c r="D350" s="11"/>
-      <c r="E350" s="12"/>
-      <c r="F350" s="12"/>
-      <c r="G350" s="21"/>
-      <c r="H350" s="21"/>
-      <c r="I350" s="21"/>
-      <c r="J350" s="21"/>
-      <c r="K350" s="21"/>
-      <c r="L350" s="21"/>
-      <c r="M350" s="21"/>
-      <c r="N350" s="21"/>
-      <c r="O350" s="21"/>
-    </row>
-    <row r="351" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A351" s="10"/>
-      <c r="B351" s="10"/>
-      <c r="C351" s="10"/>
-      <c r="D351" s="10"/>
-      <c r="E351" s="10"/>
-      <c r="F351" s="5"/>
+      <c r="B351" s="11"/>
+      <c r="C351" s="11"/>
+      <c r="D351" s="11"/>
+      <c r="E351" s="12"/>
+      <c r="F351" s="12"/>
+      <c r="G351" s="21"/>
+      <c r="H351" s="21"/>
+      <c r="I351" s="21"/>
+      <c r="J351" s="21"/>
+      <c r="K351" s="21"/>
+      <c r="L351" s="21"/>
+      <c r="M351" s="21"/>
+      <c r="N351" s="21"/>
+      <c r="O351" s="21"/>
     </row>
     <row r="352" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A352" s="25" t="s">
+      <c r="A352" s="10"/>
+      <c r="B352" s="10"/>
+      <c r="C352" s="10"/>
+      <c r="D352" s="10"/>
+      <c r="E352" s="10"/>
+      <c r="F352" s="5"/>
+    </row>
+    <row r="353" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A353" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B352" s="26" t="s">
+      <c r="B353" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C353" s="10"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+    </row>
+    <row r="354" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A354" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B354" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C352" s="27"/>
-      <c r="D352" s="28"/>
-      <c r="E352" s="28"/>
-      <c r="F352" s="5"/>
-    </row>
-    <row r="353" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A353" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B353" s="26" t="s">
+      <c r="C354" s="10"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+    </row>
+    <row r="355" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A355" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B355" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C355" s="10"/>
+      <c r="D355" s="5"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+    </row>
+    <row r="356" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A356" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B356" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C356" s="10"/>
+      <c r="D356" s="5"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+    </row>
+    <row r="357" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A357" s="24"/>
+      <c r="B357" s="5"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="5"/>
+      <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
+    </row>
+    <row r="358" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A358" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="5"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
+    </row>
+    <row r="359" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A359" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B359" s="5"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+    </row>
+    <row r="360" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A360" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B360" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C360" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D360" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E360" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F360" s="5"/>
+    </row>
+    <row r="361" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A361" s="18">
+        <v>10</v>
+      </c>
+      <c r="B361" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C353" s="27"/>
-      <c r="D353" s="28"/>
-      <c r="E353" s="28"/>
-      <c r="F353" s="5"/>
-    </row>
-    <row r="354" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A354" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B354" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C354" s="27"/>
-      <c r="D354" s="28"/>
-      <c r="E354" s="28"/>
-      <c r="F354" s="5"/>
-    </row>
-    <row r="355" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A355" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B355" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C355" s="27"/>
-      <c r="D355" s="28"/>
-      <c r="E355" s="28"/>
-      <c r="F355" s="5"/>
-    </row>
-    <row r="356" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A356" s="29"/>
-      <c r="B356" s="28"/>
-      <c r="C356" s="28"/>
-      <c r="D356" s="28"/>
-      <c r="E356" s="28"/>
-      <c r="F356" s="5"/>
-    </row>
-    <row r="357" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A357" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B357" s="28"/>
-      <c r="C357" s="28"/>
-      <c r="D357" s="28"/>
-      <c r="E357" s="28"/>
-      <c r="F357" s="5"/>
-    </row>
-    <row r="358" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A358" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B358" s="28"/>
-      <c r="C358" s="28"/>
-      <c r="D358" s="28"/>
-      <c r="E358" s="28"/>
-      <c r="F358" s="5"/>
-    </row>
-    <row r="359" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A359" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B359" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C359" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D359" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E359" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F359" s="5"/>
-    </row>
-    <row r="360" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A360" s="31">
-        <v>10</v>
-      </c>
-      <c r="B360" s="26" t="s">
+      <c r="C361" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C360" s="26" t="s">
+      <c r="D361" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E361" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F361" s="5"/>
+    </row>
+    <row r="362" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A362" s="5"/>
+      <c r="B362" s="5"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+    </row>
+    <row r="363" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A363" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B363" s="5"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+    </row>
+    <row r="364" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A364" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B364" s="5"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+    </row>
+    <row r="365" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A365" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B365" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D360" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E360" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F360" s="5"/>
-    </row>
-    <row r="361" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A361" s="28"/>
-      <c r="B361" s="28"/>
-      <c r="C361" s="28"/>
-      <c r="D361" s="28"/>
-      <c r="E361" s="28"/>
-      <c r="F361" s="5"/>
-    </row>
-    <row r="362" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A362" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B362" s="28"/>
-      <c r="C362" s="28"/>
-      <c r="D362" s="28"/>
-      <c r="E362" s="28"/>
-      <c r="F362" s="5"/>
-    </row>
-    <row r="363" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A363" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B363" s="28"/>
-      <c r="C363" s="28"/>
-      <c r="D363" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E363" s="28"/>
-      <c r="F363" s="5"/>
-    </row>
-    <row r="364" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A364" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B364" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C364" s="28"/>
-      <c r="D364" s="30" t="s">
+      <c r="C365" s="5"/>
+      <c r="D365" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E364" s="33"/>
-      <c r="F364" s="5"/>
-    </row>
-    <row r="365" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A365" s="30" t="s">
+      <c r="E365" s="20"/>
+      <c r="F365" s="5"/>
+    </row>
+    <row r="366" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A366" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B365" s="32"/>
-      <c r="C365" s="28"/>
-      <c r="D365" s="30" t="s">
+      <c r="B366" s="19"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E365" s="33"/>
-      <c r="F365" s="5"/>
-    </row>
-    <row r="366" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A366" s="5"/>
-      <c r="B366" s="5"/>
-      <c r="C366" s="5"/>
-      <c r="D366" s="5"/>
-      <c r="E366" s="5"/>
+      <c r="E366" s="20"/>
       <c r="F366" s="5"/>
     </row>
     <row r="367" spans="1:6" ht="15.75" customHeight="1">
@@ -16674,9 +16933,7 @@
       <c r="F367" s="5"/>
     </row>
     <row r="368" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A368" s="123" t="s">
-        <v>123</v>
-      </c>
+      <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
@@ -16684,7 +16941,9 @@
       <c r="F368" s="5"/>
     </row>
     <row r="369" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A369" s="5"/>
+      <c r="A369" s="58" t="s">
+        <v>121</v>
+      </c>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
@@ -24106,6 +24365,14 @@
       <c r="D1296" s="5"/>
       <c r="E1296" s="5"/>
       <c r="F1296" s="5"/>
+    </row>
+    <row r="1297" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A1297" s="5"/>
+      <c r="B1297" s="5"/>
+      <c r="C1297" s="5"/>
+      <c r="D1297" s="5"/>
+      <c r="E1297" s="5"/>
+      <c r="F1297" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="36"/>

--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-036_自動転記基準セットの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-036_自動転記基準セットの管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20246_【会計】基幹システムバージョンアップ（会計領域　GL部門入力）\20_成果物\FBDI(転記JOB想定)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20246_【会計】基幹システムバージョンアップ（会計領域　GL部門入力）\20_成果物\07_本番リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="408" yWindow="1236" windowWidth="14712" windowHeight="8820"/>
+    <workbookView xWindow="405" yWindow="1230" windowWidth="14715" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -865,13 +865,12 @@
     <definedName name="有効桁数">#REF!</definedName>
     <definedName name="列長">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="138">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -1665,32 +1664,6 @@
     <phoneticPr fontId="36"/>
   </si>
   <si>
-    <t>E_本稼働_20246対応
-STEP4GL部門入力対応　GL部門入力からの仕訳の自動転記セットにERP_GL部門入力を追加（90行目）</t>
-    <rPh sb="2" eb="5">
-      <t>ホンカドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>ブモンニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="54" eb="58">
-      <t>ブモンニュウリョク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ギョウメ</t>
-    </rPh>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
     <t>ERP_GL部門入力</t>
     <rPh sb="6" eb="10">
       <t>ブモンニュウリョク</t>
@@ -1710,6 +1683,74 @@
     </rPh>
     <phoneticPr fontId="36"/>
   </si>
+  <si>
+    <t>ERP_GL部門入力は部門クローズごとに変更する</t>
+    <rPh sb="6" eb="10">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>財務経理用_ERP_GL部門入力</t>
+    <rPh sb="0" eb="5">
+      <t>ザイムケイリヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>スプレッドシート</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>E_本稼働_20246対応
+STEP4GL部門入力対応　GL部門入力からの仕訳の自動転記セットにERP_GL部門入力と財務経理用_ERP_GL部門入力(79行目)</t>
+    <rPh sb="2" eb="5">
+      <t>ホンカドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="54" eb="58">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="59" eb="64">
+      <t>ザイムケイリヨウ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.5</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>E_本稼働_20246対応
+STEP4GL部門入力対応　スプレッドシートを追加（92行目）</t>
+    <rPh sb="21" eb="27">
+      <t>ブモンニュウリョクタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
 </sst>
 </file>
 
@@ -1719,7 +1760,7 @@
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="60">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2112,6 +2153,13 @@
       <sz val="11"/>
       <color rgb="FFFF3399"/>
       <name val="Meiryo ui"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF66CC"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2793,7 +2841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
@@ -2935,6 +2983,81 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2942,6 +3065,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2953,15 +3082,6 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2971,40 +3091,10 @@
     <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3025,53 +3115,6 @@
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="56" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3079,6 +3122,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="57" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="57" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="57" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3090,45 +3154,59 @@
     <xf numFmtId="0" fontId="56" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="57" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="58" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -11021,92 +11099,92 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="8" width="2.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" style="1" customWidth="1"/>
-    <col min="10" max="12" width="2.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.77734375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="8" width="2.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
+    <col min="10" max="12" width="2.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="11.4" thickBot="1"/>
-    <row r="2" spans="1:41" ht="11.4" thickBot="1">
-      <c r="A2" s="68" t="s">
+    <row r="1" spans="1:41" ht="12" thickBot="1"/>
+    <row r="2" spans="1:41" ht="12" thickBot="1">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="68" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="68" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="99" t="s">
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="99"/>
-      <c r="AH2" s="99"/>
-      <c r="AI2" s="99"/>
-      <c r="AJ2" s="99"/>
-      <c r="AK2" s="99"/>
-      <c r="AL2" s="99"/>
-      <c r="AM2" s="99"/>
-      <c r="AN2" s="99"/>
-      <c r="AO2" s="100"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="76"/>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="77">
+      <c r="A3" s="97">
         <v>44865</v>
       </c>
       <c r="B3" s="78"/>
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
       <c r="E3" s="79"/>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="71" t="s">
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="101" t="s">
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="77" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="78"/>
@@ -11138,26 +11216,26 @@
       <c r="AO3" s="79"/>
     </row>
     <row r="4" spans="1:41" ht="30" customHeight="1">
-      <c r="A4" s="80">
+      <c r="A4" s="98">
         <v>44949</v>
       </c>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82"/>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="74" t="s">
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="102" t="s">
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="80" t="s">
         <v>89</v>
       </c>
       <c r="O4" s="81"/>
@@ -11189,1168 +11267,1230 @@
       <c r="AO4" s="82"/>
     </row>
     <row r="5" spans="1:41" ht="24" customHeight="1">
-      <c r="A5" s="83">
+      <c r="A5" s="99">
         <v>45041</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="59" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="59" t="s">
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="103" t="s">
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="105"/>
-    </row>
-    <row r="6" spans="1:41" ht="23.4" customHeight="1">
-      <c r="A6" s="106">
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="84"/>
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="85"/>
+    </row>
+    <row r="6" spans="1:41" ht="23.45" customHeight="1">
+      <c r="A6" s="105">
         <v>45211</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="109" t="s">
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="109" t="s">
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="112" t="s">
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113"/>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="113"/>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="114"/>
-    </row>
-    <row r="7" spans="1:41" ht="26.4" customHeight="1">
-      <c r="A7" s="115">
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="65"/>
+    </row>
+    <row r="7" spans="1:41" ht="38.25" customHeight="1">
+      <c r="A7" s="108">
         <v>45595</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118" t="s">
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="118" t="s">
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="121" t="s">
-        <v>130</v>
-      </c>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="122"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="122"/>
-      <c r="AL7" s="122"/>
-      <c r="AM7" s="122"/>
-      <c r="AN7" s="122"/>
-      <c r="AO7" s="123"/>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="94"/>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="94"/>
-      <c r="AI8" s="94"/>
-      <c r="AJ8" s="94"/>
-      <c r="AK8" s="94"/>
-      <c r="AL8" s="94"/>
-      <c r="AM8" s="94"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="95"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="67"/>
+      <c r="AH7" s="67"/>
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="67"/>
+      <c r="AK7" s="67"/>
+      <c r="AL7" s="67"/>
+      <c r="AM7" s="67"/>
+      <c r="AN7" s="67"/>
+      <c r="AO7" s="68"/>
+    </row>
+    <row r="8" spans="1:41" ht="27" customHeight="1">
+      <c r="A8" s="111">
+        <v>45615</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="124" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="71"/>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="97"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="97"/>
-      <c r="AG9" s="97"/>
-      <c r="AH9" s="97"/>
-      <c r="AI9" s="97"/>
-      <c r="AJ9" s="97"/>
-      <c r="AK9" s="97"/>
-      <c r="AL9" s="97"/>
-      <c r="AM9" s="97"/>
-      <c r="AN9" s="97"/>
-      <c r="AO9" s="98"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="74"/>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="94"/>
-      <c r="AK10" s="94"/>
-      <c r="AL10" s="94"/>
-      <c r="AM10" s="94"/>
-      <c r="AN10" s="94"/>
-      <c r="AO10" s="95"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="67"/>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="67"/>
+      <c r="AK10" s="67"/>
+      <c r="AL10" s="67"/>
+      <c r="AM10" s="67"/>
+      <c r="AN10" s="67"/>
+      <c r="AO10" s="68"/>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="89"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="90"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="61"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="61"/>
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="61"/>
+      <c r="AO11" s="62"/>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="89"/>
-      <c r="AO12" s="90"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
+      <c r="AK12" s="61"/>
+      <c r="AL12" s="61"/>
+      <c r="AM12" s="61"/>
+      <c r="AN12" s="61"/>
+      <c r="AO12" s="62"/>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="89"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="89"/>
-      <c r="AN13" s="89"/>
-      <c r="AO13" s="90"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="62"/>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="89"/>
-      <c r="AN14" s="89"/>
-      <c r="AO14" s="90"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="61"/>
+      <c r="AK14" s="61"/>
+      <c r="AL14" s="61"/>
+      <c r="AM14" s="61"/>
+      <c r="AN14" s="61"/>
+      <c r="AO14" s="62"/>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="89"/>
-      <c r="AN15" s="89"/>
-      <c r="AO15" s="90"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="61"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="61"/>
+      <c r="AO15" s="62"/>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="89"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="89"/>
-      <c r="AJ16" s="89"/>
-      <c r="AK16" s="89"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="89"/>
-      <c r="AN16" s="89"/>
-      <c r="AO16" s="90"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="61"/>
+      <c r="AK16" s="61"/>
+      <c r="AL16" s="61"/>
+      <c r="AM16" s="61"/>
+      <c r="AN16" s="61"/>
+      <c r="AO16" s="62"/>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="89"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="89"/>
-      <c r="AO17" s="90"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="62"/>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="90"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="62"/>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="89"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="89"/>
-      <c r="AO19" s="90"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="62"/>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="89"/>
-      <c r="AJ20" s="89"/>
-      <c r="AK20" s="89"/>
-      <c r="AL20" s="89"/>
-      <c r="AM20" s="89"/>
-      <c r="AN20" s="89"/>
-      <c r="AO20" s="90"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="61"/>
+      <c r="AO20" s="62"/>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="89"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="89"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="89"/>
-      <c r="AO21" s="90"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="62"/>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="89"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="89"/>
-      <c r="AJ22" s="89"/>
-      <c r="AK22" s="89"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="89"/>
-      <c r="AN22" s="89"/>
-      <c r="AO22" s="90"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="61"/>
+      <c r="AL22" s="61"/>
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="61"/>
+      <c r="AO22" s="62"/>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
-      <c r="AE23" s="89"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="89"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="89"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="89"/>
-      <c r="AL23" s="89"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="89"/>
-      <c r="AO23" s="90"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="61"/>
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="61"/>
+      <c r="AO23" s="62"/>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="89"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="89"/>
-      <c r="AJ24" s="89"/>
-      <c r="AK24" s="89"/>
-      <c r="AL24" s="89"/>
-      <c r="AM24" s="89"/>
-      <c r="AN24" s="89"/>
-      <c r="AO24" s="90"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="61"/>
+      <c r="AL24" s="61"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="61"/>
+      <c r="AO24" s="62"/>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="89"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="89"/>
-      <c r="AJ25" s="89"/>
-      <c r="AK25" s="89"/>
-      <c r="AL25" s="89"/>
-      <c r="AM25" s="89"/>
-      <c r="AN25" s="89"/>
-      <c r="AO25" s="90"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="61"/>
+      <c r="AO25" s="62"/>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="89"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="89"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="89"/>
-      <c r="AJ26" s="89"/>
-      <c r="AK26" s="89"/>
-      <c r="AL26" s="89"/>
-      <c r="AM26" s="89"/>
-      <c r="AN26" s="89"/>
-      <c r="AO26" s="90"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="61"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="61"/>
+      <c r="AO26" s="62"/>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
-      <c r="AE27" s="89"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="89"/>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="89"/>
-      <c r="AJ27" s="89"/>
-      <c r="AK27" s="89"/>
-      <c r="AL27" s="89"/>
-      <c r="AM27" s="89"/>
-      <c r="AN27" s="89"/>
-      <c r="AO27" s="90"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="61"/>
+      <c r="AO27" s="62"/>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
-      <c r="AE28" s="89"/>
-      <c r="AF28" s="89"/>
-      <c r="AG28" s="89"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="89"/>
-      <c r="AJ28" s="89"/>
-      <c r="AK28" s="89"/>
-      <c r="AL28" s="89"/>
-      <c r="AM28" s="89"/>
-      <c r="AN28" s="89"/>
-      <c r="AO28" s="90"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="62"/>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
-      <c r="AC29" s="89"/>
-      <c r="AD29" s="89"/>
-      <c r="AE29" s="89"/>
-      <c r="AF29" s="89"/>
-      <c r="AG29" s="89"/>
-      <c r="AH29" s="89"/>
-      <c r="AI29" s="89"/>
-      <c r="AJ29" s="89"/>
-      <c r="AK29" s="89"/>
-      <c r="AL29" s="89"/>
-      <c r="AM29" s="89"/>
-      <c r="AN29" s="89"/>
-      <c r="AO29" s="90"/>
-    </row>
-    <row r="30" spans="1:41" ht="11.4" thickBot="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="91"/>
-      <c r="AC30" s="91"/>
-      <c r="AD30" s="91"/>
-      <c r="AE30" s="91"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="91"/>
-      <c r="AH30" s="91"/>
-      <c r="AI30" s="91"/>
-      <c r="AJ30" s="91"/>
-      <c r="AK30" s="91"/>
-      <c r="AL30" s="91"/>
-      <c r="AM30" s="91"/>
-      <c r="AN30" s="91"/>
-      <c r="AO30" s="92"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="61"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="61"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="61"/>
+      <c r="AO29" s="62"/>
+    </row>
+    <row r="30" spans="1:41" ht="12" thickBot="1">
+      <c r="A30" s="91"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="89"/>
+      <c r="AF30" s="89"/>
+      <c r="AG30" s="89"/>
+      <c r="AH30" s="89"/>
+      <c r="AI30" s="89"/>
+      <c r="AJ30" s="89"/>
+      <c r="AK30" s="89"/>
+      <c r="AL30" s="89"/>
+      <c r="AM30" s="89"/>
+      <c r="AN30" s="89"/>
+      <c r="AO30" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="N11:AO11"/>
-    <mergeCell ref="N6:AO6"/>
-    <mergeCell ref="N7:AO7"/>
-    <mergeCell ref="N8:AO8"/>
-    <mergeCell ref="N9:AO9"/>
-    <mergeCell ref="N10:AO10"/>
-    <mergeCell ref="N2:AO2"/>
-    <mergeCell ref="N3:AO3"/>
-    <mergeCell ref="N4:AO4"/>
-    <mergeCell ref="N5:AO5"/>
-    <mergeCell ref="N20:AO20"/>
-    <mergeCell ref="N21:AO21"/>
-    <mergeCell ref="N22:AO22"/>
-    <mergeCell ref="N13:AO13"/>
-    <mergeCell ref="N14:AO14"/>
-    <mergeCell ref="N15:AO15"/>
-    <mergeCell ref="N16:AO16"/>
-    <mergeCell ref="N17:AO17"/>
-    <mergeCell ref="N12:AO12"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A19:E19"/>
@@ -12375,79 +12515,25 @@
     <mergeCell ref="N27:AO27"/>
     <mergeCell ref="N18:AO18"/>
     <mergeCell ref="N19:AO19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N20:AO20"/>
+    <mergeCell ref="N21:AO21"/>
+    <mergeCell ref="N22:AO22"/>
+    <mergeCell ref="N13:AO13"/>
+    <mergeCell ref="N14:AO14"/>
+    <mergeCell ref="N15:AO15"/>
+    <mergeCell ref="N16:AO16"/>
+    <mergeCell ref="N17:AO17"/>
+    <mergeCell ref="N12:AO12"/>
+    <mergeCell ref="N11:AO11"/>
+    <mergeCell ref="N6:AO6"/>
+    <mergeCell ref="N7:AO7"/>
+    <mergeCell ref="N8:AO8"/>
+    <mergeCell ref="N9:AO9"/>
+    <mergeCell ref="N10:AO10"/>
+    <mergeCell ref="N2:AO2"/>
+    <mergeCell ref="N3:AO3"/>
+    <mergeCell ref="N4:AO4"/>
+    <mergeCell ref="N5:AO5"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -12464,39 +12550,39 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="50" customWidth="1"/>
-    <col min="3" max="5" width="37.6640625" style="50" customWidth="1"/>
-    <col min="6" max="16384" width="9.77734375" style="49"/>
+    <col min="1" max="1" width="5.5" style="49" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="50" customWidth="1"/>
+    <col min="3" max="5" width="37.625" style="50" customWidth="1"/>
+    <col min="6" max="16384" width="9.75" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="51" customFormat="1" ht="11.4"/>
-    <row r="2" spans="1:11" s="52" customFormat="1" ht="14.4">
+    <row r="1" spans="1:11" s="51" customFormat="1" ht="12"/>
+    <row r="2" spans="1:11" s="52" customFormat="1" ht="14.25">
       <c r="B2" s="53"/>
       <c r="C2" s="54"/>
       <c r="D2" s="54"/>
       <c r="E2" s="54"/>
     </row>
-    <row r="3" spans="1:11" s="52" customFormat="1" ht="18.600000000000001">
+    <row r="3" spans="1:11" s="52" customFormat="1" ht="19.5">
       <c r="B3" s="55" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="52" customFormat="1" ht="14.4">
+    <row r="4" spans="1:11" s="52" customFormat="1" ht="14.25">
       <c r="B4" s="53"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:11" s="52" customFormat="1" ht="16.2">
+    <row r="5" spans="1:11" s="52" customFormat="1" ht="16.5">
       <c r="B5" s="56" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="52" customFormat="1" thickBot="1"/>
-    <row r="7" spans="1:11" s="39" customFormat="1" ht="14.4">
+    <row r="6" spans="1:11" s="52" customFormat="1" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" s="39" customFormat="1" ht="14.25">
       <c r="A7" s="52"/>
       <c r="B7" s="36" t="s">
         <v>116</v>
@@ -12511,7 +12597,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="39" customFormat="1" ht="28.8">
+    <row r="8" spans="1:11" s="39" customFormat="1" ht="14.25">
       <c r="A8" s="52"/>
       <c r="B8" s="40" t="s">
         <v>115</v>
@@ -12526,7 +12612,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="39" customFormat="1" thickBot="1">
+    <row r="9" spans="1:11" s="39" customFormat="1" ht="15" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="43"/>
       <c r="C9" s="44"/>
@@ -12540,7 +12626,7 @@
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
     </row>
-    <row r="11" spans="1:11" s="52" customFormat="1" ht="14.4">
+    <row r="11" spans="1:11" s="52" customFormat="1" ht="14.25">
       <c r="B11" s="53"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -12552,9 +12638,9 @@
       <c r="J11" s="54"/>
       <c r="K11" s="54"/>
     </row>
-    <row r="12" spans="1:11" s="52" customFormat="1" ht="16.2">
+    <row r="12" spans="1:11" s="52" customFormat="1" ht="16.5">
       <c r="B12" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -12599,28 +12685,28 @@
     <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O1297"/>
+  <dimension ref="A1:O1298"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.44140625" style="3"/>
+    <col min="7" max="7" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.5" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
@@ -13666,85 +13752,107 @@
       <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A90" s="124">
+      <c r="A90" s="59">
         <v>10</v>
       </c>
-      <c r="B90" s="125" t="s">
+      <c r="B90" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="125" t="s">
-        <v>131</v>
-      </c>
-      <c r="D90" s="125" t="s">
+      <c r="C90" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E90" s="125" t="s">
+      <c r="E90" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="F90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
+      <c r="A91" s="59">
+        <v>10</v>
+      </c>
+      <c r="B91" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" s="60" t="s">
+        <v>25</v>
+      </c>
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A92" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
+      <c r="A92" s="59">
+        <v>10</v>
+      </c>
+      <c r="B92" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="60" t="s">
+        <v>25</v>
+      </c>
       <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A94" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A94" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E94" s="20"/>
+      <c r="D94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="C95" s="5"/>
       <c r="D95" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+      <c r="A96" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" s="19"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
+      <c r="D96" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="20"/>
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:15" ht="15.75" customHeight="1">
@@ -13756,50 +13864,46 @@
       <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A99" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="13"/>
-      <c r="O98" s="13"/>
-    </row>
-    <row r="99" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="5"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A100" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
       <c r="C100" s="10"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
       <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1">
       <c r="A101" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="5"/>
@@ -13808,10 +13912,10 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="5"/>
@@ -13820,7 +13924,7 @@
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1">
       <c r="A103" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>14</v>
@@ -13831,17 +13935,19 @@
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A104" s="16"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
+      <c r="A104" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="10"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A105" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A105" s="16"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -13850,7 +13956,7 @@
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1">
       <c r="A106" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13859,53 +13965,53 @@
       <c r="F106" s="5"/>
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A108" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B108" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C108" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D108" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E107" s="17" t="s">
+      <c r="E108" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A108" s="18">
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A109" s="18">
         <v>10</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B109" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C109" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D108" s="15" t="s">
+      <c r="D109" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E108" s="15" t="s">
+      <c r="E109" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A110" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -13914,48 +14020,50 @@
     </row>
     <row r="111" spans="1:15" ht="15.75" customHeight="1">
       <c r="A111" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A112" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>52</v>
-      </c>
+      <c r="A112" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E112" s="20"/>
+      <c r="D112" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:15" ht="15.75" customHeight="1">
       <c r="A113" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B113" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="C113" s="5"/>
       <c r="D113" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+      <c r="A114" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="19"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
+      <c r="D114" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" s="20"/>
       <c r="F114" s="5"/>
     </row>
     <row r="115" spans="1:15" ht="15.75" customHeight="1">
@@ -13967,50 +14075,46 @@
       <c r="F115" s="5"/>
     </row>
     <row r="116" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A117" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="13"/>
-    </row>
-    <row r="117" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="5"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
+      <c r="O117" s="13"/>
     </row>
     <row r="118" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A118" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>53</v>
-      </c>
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
       <c r="C118" s="10"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
       <c r="F118" s="5"/>
     </row>
     <row r="119" spans="1:15" ht="15.75" customHeight="1">
       <c r="A119" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="5"/>
@@ -14019,10 +14123,10 @@
     </row>
     <row r="120" spans="1:15" ht="15.75" customHeight="1">
       <c r="A120" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="5"/>
@@ -14031,7 +14135,7 @@
     </row>
     <row r="121" spans="1:15" ht="15.75" customHeight="1">
       <c r="A121" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>14</v>
@@ -14042,17 +14146,19 @@
       <c r="F121" s="5"/>
     </row>
     <row r="122" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A122" s="16"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
+      <c r="A122" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="10"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
     <row r="123" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A123" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A123" s="16"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -14061,7 +14167,7 @@
     </row>
     <row r="124" spans="1:15" ht="15.75" customHeight="1">
       <c r="A124" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -14070,53 +14176,53 @@
       <c r="F124" s="5"/>
     </row>
     <row r="125" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A126" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B126" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C126" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D126" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E125" s="17" t="s">
+      <c r="E126" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F125" s="5"/>
-    </row>
-    <row r="126" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A126" s="18">
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A127" s="18">
         <v>10</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B127" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C127" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D126" s="15" t="s">
+      <c r="D127" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E126" s="15" t="s">
+      <c r="E127" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F126" s="5"/>
-    </row>
-    <row r="127" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
     <row r="128" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A128" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -14125,48 +14231,50 @@
     </row>
     <row r="129" spans="1:15" ht="15.75" customHeight="1">
       <c r="A129" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
-      <c r="D129" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A130" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A130" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E130" s="20"/>
+      <c r="D130" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:15" ht="15.75" customHeight="1">
       <c r="A131" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B131" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C131" s="5"/>
       <c r="D131" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="5"/>
     </row>
     <row r="132" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
+      <c r="A132" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" s="19"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
+      <c r="D132" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E132" s="20"/>
       <c r="F132" s="5"/>
     </row>
     <row r="133" spans="1:15" ht="15.75" customHeight="1">
@@ -14178,50 +14286,46 @@
       <c r="F133" s="5"/>
     </row>
     <row r="134" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A135" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="13"/>
-      <c r="M134" s="13"/>
-      <c r="N134" s="13"/>
-      <c r="O134" s="13"/>
-    </row>
-    <row r="135" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="5"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="13"/>
+      <c r="O135" s="13"/>
     </row>
     <row r="136" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A136" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
       <c r="C136" s="10"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
       <c r="F136" s="5"/>
     </row>
     <row r="137" spans="1:15" ht="15.75" customHeight="1">
       <c r="A137" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="5"/>
@@ -14230,10 +14334,10 @@
     </row>
     <row r="138" spans="1:15" ht="15.75" customHeight="1">
       <c r="A138" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="5"/>
@@ -14242,7 +14346,7 @@
     </row>
     <row r="139" spans="1:15" ht="15.75" customHeight="1">
       <c r="A139" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B139" s="15" t="s">
         <v>14</v>
@@ -14253,17 +14357,19 @@
       <c r="F139" s="5"/>
     </row>
     <row r="140" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A140" s="16"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
+      <c r="A140" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="10"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A141" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A141" s="16"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -14272,7 +14378,7 @@
     </row>
     <row r="142" spans="1:15" ht="15.75" customHeight="1">
       <c r="A142" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14281,53 +14387,53 @@
       <c r="F142" s="5"/>
     </row>
     <row r="143" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A144" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B144" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C144" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D143" s="17" t="s">
+      <c r="D144" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E143" s="17" t="s">
+      <c r="E144" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F143" s="5"/>
-    </row>
-    <row r="144" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A144" s="18">
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A145" s="18">
         <v>10</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B145" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C145" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D144" s="15" t="s">
+      <c r="D145" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E144" s="15" t="s">
+      <c r="E145" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F144" s="5"/>
-    </row>
-    <row r="145" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
     <row r="146" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A146" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -14336,48 +14442,50 @@
     </row>
     <row r="147" spans="1:15" ht="15.75" customHeight="1">
       <c r="A147" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
     <row r="148" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A148" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A148" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148" s="5"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E148" s="20"/>
+      <c r="D148" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
     <row r="149" spans="1:15" ht="15.75" customHeight="1">
       <c r="A149" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B149" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C149" s="5"/>
       <c r="D149" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="5"/>
     </row>
     <row r="150" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
+      <c r="A150" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150" s="19"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
+      <c r="D150" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" s="20"/>
       <c r="F150" s="5"/>
     </row>
     <row r="151" spans="1:15" ht="15.75" customHeight="1">
@@ -14389,50 +14497,46 @@
       <c r="F151" s="5"/>
     </row>
     <row r="152" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A153" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="13"/>
-      <c r="J152" s="13"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="13"/>
-      <c r="N152" s="13"/>
-      <c r="O152" s="13"/>
-    </row>
-    <row r="153" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="5"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
+      <c r="M153" s="13"/>
+      <c r="N153" s="13"/>
+      <c r="O153" s="13"/>
     </row>
     <row r="154" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A154" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
       <c r="F154" s="5"/>
     </row>
     <row r="155" spans="1:15" ht="15.75" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="5"/>
@@ -14441,10 +14545,10 @@
     </row>
     <row r="156" spans="1:15" ht="15.75" customHeight="1">
       <c r="A156" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="5"/>
@@ -14453,7 +14557,7 @@
     </row>
     <row r="157" spans="1:15" ht="15.75" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B157" s="15" t="s">
         <v>14</v>
@@ -14464,17 +14568,19 @@
       <c r="F157" s="5"/>
     </row>
     <row r="158" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A158" s="16"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
+      <c r="A158" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="10"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
     <row r="159" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A159" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A159" s="16"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -14483,7 +14589,7 @@
     </row>
     <row r="160" spans="1:15" ht="15.75" customHeight="1">
       <c r="A160" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -14492,53 +14598,53 @@
       <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A161" s="17" t="s">
+      <c r="A161" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A162" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B162" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C162" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="17" t="s">
+      <c r="D162" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E161" s="17" t="s">
+      <c r="E162" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F161" s="5"/>
-    </row>
-    <row r="162" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A162" s="18">
+      <c r="F162" s="5"/>
+    </row>
+    <row r="163" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A163" s="18">
         <v>10</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B163" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C162" s="15" t="s">
+      <c r="C163" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D162" s="15" t="s">
+      <c r="D163" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E162" s="15" t="s">
+      <c r="E163" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F162" s="5"/>
-    </row>
-    <row r="163" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
     <row r="164" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A164" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -14547,48 +14653,50 @@
     </row>
     <row r="165" spans="1:15" ht="15.75" customHeight="1">
       <c r="A165" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A166" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B166" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A166" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E166" s="20"/>
+      <c r="D166" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="5"/>
       <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:15" ht="15.75" customHeight="1">
       <c r="A167" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B167" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="C167" s="5"/>
       <c r="D167" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="5"/>
     </row>
     <row r="168" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
+      <c r="A168" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="19"/>
       <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
+      <c r="D168" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E168" s="20"/>
       <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:15" ht="15.75" customHeight="1">
@@ -14600,50 +14708,46 @@
       <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+    </row>
+    <row r="171" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A171" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="13"/>
-      <c r="I170" s="13"/>
-      <c r="J170" s="13"/>
-      <c r="K170" s="13"/>
-      <c r="L170" s="13"/>
-      <c r="M170" s="13"/>
-      <c r="N170" s="13"/>
-      <c r="O170" s="13"/>
-    </row>
-    <row r="171" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="5"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="13"/>
+      <c r="L171" s="13"/>
+      <c r="M171" s="13"/>
+      <c r="N171" s="13"/>
+      <c r="O171" s="13"/>
     </row>
     <row r="172" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A172" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
       <c r="C172" s="10"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
       <c r="F172" s="5"/>
     </row>
     <row r="173" spans="1:15" ht="15.75" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="5"/>
@@ -14652,10 +14756,10 @@
     </row>
     <row r="174" spans="1:15" ht="15.75" customHeight="1">
       <c r="A174" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="5"/>
@@ -14664,7 +14768,7 @@
     </row>
     <row r="175" spans="1:15" ht="15.75" customHeight="1">
       <c r="A175" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B175" s="15" t="s">
         <v>14</v>
@@ -14675,17 +14779,19 @@
       <c r="F175" s="5"/>
     </row>
     <row r="176" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A176" s="16"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
+      <c r="A176" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="10"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
     <row r="177" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A177" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A177" s="16"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -14694,7 +14800,7 @@
     </row>
     <row r="178" spans="1:15" ht="15.75" customHeight="1">
       <c r="A178" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -14703,53 +14809,53 @@
       <c r="F178" s="5"/>
     </row>
     <row r="179" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A179" s="17" t="s">
+      <c r="A179" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A180" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B179" s="17" t="s">
+      <c r="B180" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C180" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D179" s="17" t="s">
+      <c r="D180" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E179" s="17" t="s">
+      <c r="E180" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F179" s="5"/>
-    </row>
-    <row r="180" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A180" s="18">
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A181" s="18">
         <v>10</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="B181" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C180" s="15" t="s">
+      <c r="C181" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D180" s="15" t="s">
+      <c r="D181" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E180" s="15" t="s">
+      <c r="E181" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F180" s="5"/>
-    </row>
-    <row r="181" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
     <row r="182" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A182" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -14758,48 +14864,50 @@
     </row>
     <row r="183" spans="1:15" ht="15.75" customHeight="1">
       <c r="A183" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
     <row r="184" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A184" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B184" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A184" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" s="5"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E184" s="20"/>
+      <c r="D184" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
     <row r="185" spans="1:15" ht="15.75" customHeight="1">
       <c r="A185" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B185" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="C185" s="5"/>
       <c r="D185" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E185" s="20"/>
       <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
+      <c r="A186" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B186" s="19"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
+      <c r="D186" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E186" s="20"/>
       <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:15" ht="15.75" customHeight="1">
@@ -14811,50 +14919,46 @@
       <c r="F187" s="5"/>
     </row>
     <row r="188" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+    </row>
+    <row r="189" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A189" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="13"/>
-      <c r="H188" s="13"/>
-      <c r="I188" s="13"/>
-      <c r="J188" s="13"/>
-      <c r="K188" s="13"/>
-      <c r="L188" s="13"/>
-      <c r="M188" s="13"/>
-      <c r="N188" s="13"/>
-      <c r="O188" s="13"/>
-    </row>
-    <row r="189" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A189" s="10"/>
-      <c r="B189" s="10"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="5"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="13"/>
+      <c r="K189" s="13"/>
+      <c r="L189" s="13"/>
+      <c r="M189" s="13"/>
+      <c r="N189" s="13"/>
+      <c r="O189" s="13"/>
     </row>
     <row r="190" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A190" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B190" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
       <c r="C190" s="10"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
       <c r="F190" s="5"/>
     </row>
     <row r="191" spans="1:15" ht="15.75" customHeight="1">
       <c r="A191" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="5"/>
@@ -14863,10 +14967,10 @@
     </row>
     <row r="192" spans="1:15" ht="15.75" customHeight="1">
       <c r="A192" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="5"/>
@@ -14875,7 +14979,7 @@
     </row>
     <row r="193" spans="1:15" ht="15.75" customHeight="1">
       <c r="A193" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B193" s="15" t="s">
         <v>14</v>
@@ -14886,17 +14990,19 @@
       <c r="F193" s="5"/>
     </row>
     <row r="194" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A194" s="16"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
+      <c r="A194" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" s="10"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
     </row>
     <row r="195" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A195" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A195" s="16"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -14905,7 +15011,7 @@
     </row>
     <row r="196" spans="1:15" ht="15.75" customHeight="1">
       <c r="A196" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -14914,53 +15020,53 @@
       <c r="F196" s="5"/>
     </row>
     <row r="197" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A197" s="17" t="s">
+      <c r="A197" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+    </row>
+    <row r="198" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A198" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B197" s="17" t="s">
+      <c r="B198" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C198" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D197" s="17" t="s">
+      <c r="D198" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E197" s="17" t="s">
+      <c r="E198" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F197" s="5"/>
-    </row>
-    <row r="198" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A198" s="18">
+      <c r="F198" s="5"/>
+    </row>
+    <row r="199" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A199" s="18">
         <v>10</v>
       </c>
-      <c r="B198" s="15" t="s">
+      <c r="B199" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C198" s="15" t="s">
+      <c r="C199" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D198" s="15" t="s">
+      <c r="D199" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E198" s="15" t="s">
+      <c r="E199" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F198" s="5"/>
-    </row>
-    <row r="199" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
       <c r="F199" s="5"/>
     </row>
     <row r="200" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A200" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -14969,48 +15075,50 @@
     </row>
     <row r="201" spans="1:15" ht="15.75" customHeight="1">
       <c r="A201" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
-      <c r="D201" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
     </row>
     <row r="202" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A202" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B202" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A202" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B202" s="5"/>
       <c r="C202" s="5"/>
-      <c r="D202" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E202" s="20"/>
+      <c r="D202" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E202" s="5"/>
       <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:15" ht="15.75" customHeight="1">
       <c r="A203" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B203" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="C203" s="5"/>
       <c r="D203" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E203" s="20"/>
       <c r="F203" s="5"/>
     </row>
     <row r="204" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
+      <c r="A204" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B204" s="19"/>
       <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
+      <c r="D204" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E204" s="20"/>
       <c r="F204" s="5"/>
     </row>
     <row r="205" spans="1:15" ht="15.75" customHeight="1">
@@ -15022,71 +15130,67 @@
       <c r="F205" s="5"/>
     </row>
     <row r="206" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A206" s="11" t="s">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+    </row>
+    <row r="207" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A207" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="12"/>
-      <c r="G206" s="13"/>
-      <c r="H206" s="13"/>
-      <c r="I206" s="13"/>
-      <c r="J206" s="13"/>
-      <c r="K206" s="13"/>
-      <c r="L206" s="13"/>
-      <c r="M206" s="13"/>
-      <c r="N206" s="13"/>
-      <c r="O206" s="13"/>
-    </row>
-    <row r="207" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A207" s="10"/>
-      <c r="B207" s="10"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="5"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="13"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="13"/>
+      <c r="K207" s="13"/>
+      <c r="L207" s="13"/>
+      <c r="M207" s="13"/>
+      <c r="N207" s="13"/>
+      <c r="O207" s="13"/>
     </row>
     <row r="208" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A208" s="14" t="s">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="5"/>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A209" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B208" s="15" t="s">
+      <c r="B209" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="C208" s="10"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-    </row>
-    <row r="209" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A209" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B209" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="C209" s="10"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
     </row>
-    <row r="210" spans="1:15" ht="15.75" customHeight="1">
+    <row r="210" spans="1:6" ht="15.75" customHeight="1">
       <c r="A210" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
     </row>
-    <row r="211" spans="1:15" ht="15.75" customHeight="1">
+    <row r="211" spans="1:6" ht="15.75" customHeight="1">
       <c r="A211" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B211" s="15" t="s">
         <v>14</v>
@@ -15096,27 +15200,29 @@
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
     </row>
-    <row r="212" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A212" s="16"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
+    <row r="212" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A212" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="10"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
     </row>
-    <row r="213" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A213" s="5" t="s">
-        <v>16</v>
-      </c>
+    <row r="213" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A213" s="16"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
     </row>
-    <row r="214" spans="1:15" ht="15.75" customHeight="1">
+    <row r="214" spans="1:6" ht="15.75" customHeight="1">
       <c r="A214" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -15124,107 +15230,109 @@
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
     </row>
-    <row r="215" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A215" s="17" t="s">
+    <row r="215" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A215" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A216" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B215" s="17" t="s">
+      <c r="B216" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C215" s="17" t="s">
+      <c r="C216" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D215" s="17" t="s">
+      <c r="D216" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E215" s="17" t="s">
+      <c r="E216" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F215" s="5"/>
-    </row>
-    <row r="216" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A216" s="18">
+      <c r="F216" s="5"/>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A217" s="18">
         <v>10</v>
       </c>
-      <c r="B216" s="15" t="s">
+      <c r="B217" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C216" s="15" t="s">
+      <c r="C217" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D216" s="15" t="s">
+      <c r="D217" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E216" s="15" t="s">
+      <c r="E217" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F216" s="5"/>
-    </row>
-    <row r="217" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
       <c r="F217" s="5"/>
     </row>
-    <row r="218" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A218" s="5" t="s">
-        <v>26</v>
-      </c>
+    <row r="218" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
     </row>
-    <row r="219" spans="1:15" ht="15.75" customHeight="1">
+    <row r="219" spans="1:6" ht="15.75" customHeight="1">
       <c r="A219" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
-      <c r="D219" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
     </row>
-    <row r="220" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A220" s="17" t="s">
+    <row r="220" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A220" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A221" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B220" s="19" t="s">
+      <c r="B221" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C220" s="5"/>
-      <c r="D220" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E220" s="20"/>
-      <c r="F220" s="5"/>
-    </row>
-    <row r="221" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A221" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B221" s="19"/>
       <c r="C221" s="5"/>
       <c r="D221" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="5"/>
     </row>
-    <row r="222" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A222" s="5"/>
-      <c r="B222" s="5"/>
+    <row r="222" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A222" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B222" s="19"/>
       <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
+      <c r="D222" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E222" s="20"/>
       <c r="F222" s="5"/>
     </row>
-    <row r="223" spans="1:15" ht="15.75" customHeight="1">
+    <row r="223" spans="1:6" ht="15.75" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -15232,72 +15340,68 @@
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
     </row>
-    <row r="224" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A224" s="11" t="s">
+    <row r="224" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+    </row>
+    <row r="225" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A225" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B224" s="11"/>
-      <c r="C224" s="11"/>
-      <c r="D224" s="11"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="12"/>
-      <c r="G224" s="13"/>
-      <c r="H224" s="13"/>
-      <c r="I224" s="13"/>
-      <c r="J224" s="13"/>
-      <c r="K224" s="13"/>
-      <c r="L224" s="13"/>
-      <c r="M224" s="13"/>
-      <c r="N224" s="13"/>
-      <c r="O224" s="13"/>
-    </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A225" s="10"/>
-      <c r="B225" s="10"/>
-      <c r="C225" s="10"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="10"/>
-      <c r="F225" s="5"/>
-    </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A226" s="14" t="s">
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="13"/>
+      <c r="H225" s="13"/>
+      <c r="I225" s="13"/>
+      <c r="J225" s="13"/>
+      <c r="K225" s="13"/>
+      <c r="L225" s="13"/>
+      <c r="M225" s="13"/>
+      <c r="N225" s="13"/>
+      <c r="O225" s="13"/>
+    </row>
+    <row r="226" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="5"/>
+    </row>
+    <row r="227" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A227" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B226" s="15" t="s">
+      <c r="B227" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="C226" s="10"/>
-      <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
-    </row>
-    <row r="227" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A227" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B227" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
     </row>
-    <row r="228" spans="1:6" ht="15.75" customHeight="1">
+    <row r="228" spans="1:15" ht="15.75" customHeight="1">
       <c r="A228" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
     </row>
-    <row r="229" spans="1:6" ht="15.75" customHeight="1">
+    <row r="229" spans="1:15" ht="15.75" customHeight="1">
       <c r="A229" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B229" s="15" t="s">
         <v>14</v>
@@ -15307,27 +15411,29 @@
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A230" s="16"/>
-      <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
+    <row r="230" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A230" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="10"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A231" s="5" t="s">
-        <v>16</v>
-      </c>
+    <row r="231" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A231" s="16"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232" spans="1:6" ht="15.75" customHeight="1">
+    <row r="232" spans="1:15" ht="15.75" customHeight="1">
       <c r="A232" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -15335,104 +15441,106 @@
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A233" s="17" t="s">
+    <row r="233" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A233" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+    </row>
+    <row r="234" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A234" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B233" s="17" t="s">
+      <c r="B234" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C233" s="17" t="s">
+      <c r="C234" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D233" s="17" t="s">
+      <c r="D234" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E233" s="17" t="s">
+      <c r="E234" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F233" s="5"/>
-    </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A234" s="18">
+      <c r="F234" s="5"/>
+    </row>
+    <row r="235" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A235" s="18">
         <v>10</v>
       </c>
-      <c r="B234" s="15" t="s">
+      <c r="B235" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C234" s="15" t="s">
+      <c r="C235" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D234" s="15" t="s">
+      <c r="D235" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E234" s="15" t="s">
+      <c r="E235" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F234" s="5"/>
-    </row>
-    <row r="235" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A235" s="5"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
       <c r="F235" s="5"/>
     </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A236" s="5" t="s">
-        <v>26</v>
-      </c>
+    <row r="236" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
     </row>
-    <row r="237" spans="1:6" ht="15.75" customHeight="1">
+    <row r="237" spans="1:15" ht="15.75" customHeight="1">
       <c r="A237" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
-      <c r="D237" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="D237" s="5"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A238" s="17" t="s">
+    <row r="238" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A238" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+    </row>
+    <row r="239" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A239" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B238" s="19" t="s">
+      <c r="B239" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C238" s="5"/>
-      <c r="D238" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E238" s="20"/>
-      <c r="F238" s="5"/>
-    </row>
-    <row r="239" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A239" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B239" s="19"/>
       <c r="C239" s="5"/>
       <c r="D239" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A240" s="5"/>
-      <c r="B240" s="5"/>
+    <row r="240" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A240" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B240" s="19"/>
       <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
+      <c r="D240" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E240" s="20"/>
       <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:15" ht="15.75" customHeight="1">
@@ -15444,50 +15552,46 @@
       <c r="F241" s="5"/>
     </row>
     <row r="242" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A242" s="11" t="s">
+      <c r="A242" s="5"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+    </row>
+    <row r="243" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A243" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B242" s="11"/>
-      <c r="C242" s="11"/>
-      <c r="D242" s="11"/>
-      <c r="E242" s="12"/>
-      <c r="F242" s="12"/>
-      <c r="G242" s="13"/>
-      <c r="H242" s="13"/>
-      <c r="I242" s="13"/>
-      <c r="J242" s="13"/>
-      <c r="K242" s="13"/>
-      <c r="L242" s="13"/>
-      <c r="M242" s="13"/>
-      <c r="N242" s="13"/>
-      <c r="O242" s="13"/>
-    </row>
-    <row r="243" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A243" s="10"/>
-      <c r="B243" s="10"/>
-      <c r="C243" s="10"/>
-      <c r="D243" s="10"/>
-      <c r="E243" s="10"/>
-      <c r="F243" s="5"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="13"/>
+      <c r="H243" s="13"/>
+      <c r="I243" s="13"/>
+      <c r="J243" s="13"/>
+      <c r="K243" s="13"/>
+      <c r="L243" s="13"/>
+      <c r="M243" s="13"/>
+      <c r="N243" s="13"/>
+      <c r="O243" s="13"/>
     </row>
     <row r="244" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A244" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B244" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="A244" s="10"/>
+      <c r="B244" s="10"/>
       <c r="C244" s="10"/>
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10"/>
       <c r="F244" s="5"/>
     </row>
     <row r="245" spans="1:15" ht="15.75" customHeight="1">
       <c r="A245" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="5"/>
@@ -15496,10 +15600,10 @@
     </row>
     <row r="246" spans="1:15" ht="15.75" customHeight="1">
       <c r="A246" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="5"/>
@@ -15508,7 +15612,7 @@
     </row>
     <row r="247" spans="1:15" ht="15.75" customHeight="1">
       <c r="A247" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B247" s="15" t="s">
         <v>14</v>
@@ -15519,17 +15623,19 @@
       <c r="F247" s="5"/>
     </row>
     <row r="248" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A248" s="16"/>
-      <c r="B248" s="5"/>
-      <c r="C248" s="5"/>
+      <c r="A248" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" s="10"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
     </row>
     <row r="249" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A249" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A249" s="16"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
@@ -15538,7 +15644,7 @@
     </row>
     <row r="250" spans="1:15" ht="15.75" customHeight="1">
       <c r="A250" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -15547,53 +15653,53 @@
       <c r="F250" s="5"/>
     </row>
     <row r="251" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A251" s="17" t="s">
+      <c r="A251" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+    </row>
+    <row r="252" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A252" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B251" s="17" t="s">
+      <c r="B252" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C251" s="17" t="s">
+      <c r="C252" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D251" s="17" t="s">
+      <c r="D252" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E251" s="17" t="s">
+      <c r="E252" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F251" s="5"/>
-    </row>
-    <row r="252" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A252" s="18">
+      <c r="F252" s="5"/>
+    </row>
+    <row r="253" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A253" s="18">
         <v>10</v>
       </c>
-      <c r="B252" s="15" t="s">
+      <c r="B253" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C252" s="15" t="s">
+      <c r="C253" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D252" s="15" t="s">
+      <c r="D253" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E252" s="15" t="s">
+      <c r="E253" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F252" s="5"/>
-    </row>
-    <row r="253" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A253" s="5"/>
-      <c r="B253" s="5"/>
-      <c r="C253" s="5"/>
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
       <c r="F253" s="5"/>
     </row>
     <row r="254" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A254" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
@@ -15602,48 +15708,50 @@
     </row>
     <row r="255" spans="1:15" ht="15.75" customHeight="1">
       <c r="A255" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
-      <c r="D255" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D255" s="5"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
     </row>
     <row r="256" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A256" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B256" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A256" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B256" s="5"/>
       <c r="C256" s="5"/>
-      <c r="D256" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E256" s="20"/>
+      <c r="D256" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="5"/>
       <c r="F256" s="5"/>
     </row>
     <row r="257" spans="1:15" ht="15.75" customHeight="1">
       <c r="A257" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B257" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B257" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C257" s="5"/>
       <c r="D257" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="5"/>
     </row>
     <row r="258" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A258" s="5"/>
-      <c r="B258" s="5"/>
+      <c r="A258" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B258" s="19"/>
       <c r="C258" s="5"/>
-      <c r="D258" s="5"/>
-      <c r="E258" s="5"/>
+      <c r="D258" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E258" s="20"/>
       <c r="F258" s="5"/>
     </row>
     <row r="259" spans="1:15" ht="15.75" customHeight="1">
@@ -15655,50 +15763,46 @@
       <c r="F259" s="5"/>
     </row>
     <row r="260" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A260" s="11" t="s">
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+    </row>
+    <row r="261" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A261" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
-      <c r="D260" s="11"/>
-      <c r="E260" s="12"/>
-      <c r="F260" s="12"/>
-      <c r="G260" s="13"/>
-      <c r="H260" s="13"/>
-      <c r="I260" s="13"/>
-      <c r="J260" s="13"/>
-      <c r="K260" s="13"/>
-      <c r="L260" s="13"/>
-      <c r="M260" s="13"/>
-      <c r="N260" s="13"/>
-      <c r="O260" s="13"/>
-    </row>
-    <row r="261" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A261" s="10"/>
-      <c r="B261" s="10"/>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
-      <c r="E261" s="10"/>
-      <c r="F261" s="5"/>
+      <c r="B261" s="11"/>
+      <c r="C261" s="11"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12"/>
+      <c r="G261" s="13"/>
+      <c r="H261" s="13"/>
+      <c r="I261" s="13"/>
+      <c r="J261" s="13"/>
+      <c r="K261" s="13"/>
+      <c r="L261" s="13"/>
+      <c r="M261" s="13"/>
+      <c r="N261" s="13"/>
+      <c r="O261" s="13"/>
     </row>
     <row r="262" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A262" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B262" s="15" t="s">
-        <v>78</v>
-      </c>
+      <c r="A262" s="10"/>
+      <c r="B262" s="10"/>
       <c r="C262" s="10"/>
-      <c r="D262" s="5"/>
-      <c r="E262" s="5"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="10"/>
       <c r="F262" s="5"/>
     </row>
     <row r="263" spans="1:15" ht="15.75" customHeight="1">
       <c r="A263" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="5"/>
@@ -15707,10 +15811,10 @@
     </row>
     <row r="264" spans="1:15" ht="15.75" customHeight="1">
       <c r="A264" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="5"/>
@@ -15719,7 +15823,7 @@
     </row>
     <row r="265" spans="1:15" ht="15.75" customHeight="1">
       <c r="A265" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B265" s="15" t="s">
         <v>14</v>
@@ -15730,17 +15834,19 @@
       <c r="F265" s="5"/>
     </row>
     <row r="266" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A266" s="16"/>
-      <c r="B266" s="5"/>
-      <c r="C266" s="5"/>
+      <c r="A266" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" s="10"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
     </row>
     <row r="267" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A267" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A267" s="16"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
@@ -15749,7 +15855,7 @@
     </row>
     <row r="268" spans="1:15" ht="15.75" customHeight="1">
       <c r="A268" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -15758,53 +15864,53 @@
       <c r="F268" s="5"/>
     </row>
     <row r="269" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A269" s="17" t="s">
+      <c r="A269" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+    </row>
+    <row r="270" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A270" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B269" s="17" t="s">
+      <c r="B270" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C269" s="17" t="s">
+      <c r="C270" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D269" s="17" t="s">
+      <c r="D270" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E269" s="17" t="s">
+      <c r="E270" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F269" s="5"/>
-    </row>
-    <row r="270" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A270" s="18">
+      <c r="F270" s="5"/>
+    </row>
+    <row r="271" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A271" s="18">
         <v>10</v>
       </c>
-      <c r="B270" s="15" t="s">
+      <c r="B271" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="C271" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D270" s="15" t="s">
+      <c r="D271" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E270" s="15" t="s">
+      <c r="E271" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F270" s="5"/>
-    </row>
-    <row r="271" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A271" s="5"/>
-      <c r="B271" s="5"/>
-      <c r="C271" s="5"/>
-      <c r="D271" s="5"/>
-      <c r="E271" s="5"/>
       <c r="F271" s="5"/>
     </row>
     <row r="272" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A272" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
@@ -15813,48 +15919,50 @@
     </row>
     <row r="273" spans="1:15" ht="15.75" customHeight="1">
       <c r="A273" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
-      <c r="D273" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D273" s="5"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
     <row r="274" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A274" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B274" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A274" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B274" s="5"/>
       <c r="C274" s="5"/>
-      <c r="D274" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E274" s="20"/>
+      <c r="D274" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E274" s="5"/>
       <c r="F274" s="5"/>
     </row>
     <row r="275" spans="1:15" ht="15.75" customHeight="1">
       <c r="A275" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B275" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B275" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C275" s="5"/>
       <c r="D275" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="5"/>
     </row>
     <row r="276" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A276" s="5"/>
-      <c r="B276" s="5"/>
+      <c r="A276" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B276" s="19"/>
       <c r="C276" s="5"/>
-      <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
+      <c r="D276" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E276" s="20"/>
       <c r="F276" s="5"/>
     </row>
     <row r="277" spans="1:15" ht="15.75" customHeight="1">
@@ -15866,50 +15974,46 @@
       <c r="F277" s="5"/>
     </row>
     <row r="278" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A278" s="11" t="s">
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+    </row>
+    <row r="279" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A279" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B278" s="11"/>
-      <c r="C278" s="11"/>
-      <c r="D278" s="11"/>
-      <c r="E278" s="12"/>
-      <c r="F278" s="12"/>
-      <c r="G278" s="13"/>
-      <c r="H278" s="13"/>
-      <c r="I278" s="13"/>
-      <c r="J278" s="13"/>
-      <c r="K278" s="13"/>
-      <c r="L278" s="13"/>
-      <c r="M278" s="13"/>
-      <c r="N278" s="13"/>
-      <c r="O278" s="13"/>
-    </row>
-    <row r="279" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A279" s="10"/>
-      <c r="B279" s="10"/>
-      <c r="C279" s="10"/>
-      <c r="D279" s="10"/>
-      <c r="E279" s="10"/>
-      <c r="F279" s="5"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="12"/>
+      <c r="F279" s="12"/>
+      <c r="G279" s="13"/>
+      <c r="H279" s="13"/>
+      <c r="I279" s="13"/>
+      <c r="J279" s="13"/>
+      <c r="K279" s="13"/>
+      <c r="L279" s="13"/>
+      <c r="M279" s="13"/>
+      <c r="N279" s="13"/>
+      <c r="O279" s="13"/>
     </row>
     <row r="280" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A280" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B280" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="A280" s="10"/>
+      <c r="B280" s="10"/>
       <c r="C280" s="10"/>
-      <c r="D280" s="5"/>
-      <c r="E280" s="5"/>
+      <c r="D280" s="10"/>
+      <c r="E280" s="10"/>
       <c r="F280" s="5"/>
     </row>
     <row r="281" spans="1:15" ht="15.75" customHeight="1">
       <c r="A281" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C281" s="10"/>
       <c r="D281" s="5"/>
@@ -15918,10 +16022,10 @@
     </row>
     <row r="282" spans="1:15" ht="15.75" customHeight="1">
       <c r="A282" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C282" s="10"/>
       <c r="D282" s="5"/>
@@ -15930,7 +16034,7 @@
     </row>
     <row r="283" spans="1:15" ht="15.75" customHeight="1">
       <c r="A283" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B283" s="15" t="s">
         <v>14</v>
@@ -15941,17 +16045,19 @@
       <c r="F283" s="5"/>
     </row>
     <row r="284" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A284" s="16"/>
-      <c r="B284" s="5"/>
-      <c r="C284" s="5"/>
+      <c r="A284" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C284" s="10"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
     </row>
     <row r="285" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A285" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A285" s="16"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
@@ -15960,7 +16066,7 @@
     </row>
     <row r="286" spans="1:15" ht="15.75" customHeight="1">
       <c r="A286" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -15969,53 +16075,53 @@
       <c r="F286" s="5"/>
     </row>
     <row r="287" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A287" s="17" t="s">
+      <c r="A287" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+    </row>
+    <row r="288" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A288" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B287" s="17" t="s">
+      <c r="B288" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C287" s="17" t="s">
+      <c r="C288" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D287" s="17" t="s">
+      <c r="D288" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E287" s="17" t="s">
+      <c r="E288" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F287" s="5"/>
-    </row>
-    <row r="288" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A288" s="18">
+      <c r="F288" s="5"/>
+    </row>
+    <row r="289" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A289" s="18">
         <v>10</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B289" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C289" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D288" s="15" t="s">
+      <c r="D289" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E288" s="15" t="s">
+      <c r="E289" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F288" s="5"/>
-    </row>
-    <row r="289" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A289" s="5"/>
-      <c r="B289" s="5"/>
-      <c r="C289" s="5"/>
-      <c r="D289" s="5"/>
-      <c r="E289" s="5"/>
       <c r="F289" s="5"/>
     </row>
     <row r="290" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A290" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
@@ -16024,48 +16130,50 @@
     </row>
     <row r="291" spans="1:15" ht="15.75" customHeight="1">
       <c r="A291" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
-      <c r="D291" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D291" s="5"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
     <row r="292" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A292" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B292" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A292" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B292" s="5"/>
       <c r="C292" s="5"/>
-      <c r="D292" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E292" s="20"/>
+      <c r="D292" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E292" s="5"/>
       <c r="F292" s="5"/>
     </row>
     <row r="293" spans="1:15" ht="15.75" customHeight="1">
       <c r="A293" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B293" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B293" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="C293" s="5"/>
       <c r="D293" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="5"/>
     </row>
     <row r="294" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A294" s="5"/>
-      <c r="B294" s="5"/>
+      <c r="A294" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B294" s="19"/>
       <c r="C294" s="5"/>
-      <c r="D294" s="5"/>
-      <c r="E294" s="5"/>
+      <c r="D294" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E294" s="20"/>
       <c r="F294" s="5"/>
     </row>
     <row r="295" spans="1:15" ht="15.75" customHeight="1">
@@ -16077,50 +16185,46 @@
       <c r="F295" s="5"/>
     </row>
     <row r="296" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A296" s="11" t="s">
+      <c r="A296" s="5"/>
+      <c r="B296" s="5"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+    </row>
+    <row r="297" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A297" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B296" s="11"/>
-      <c r="C296" s="11"/>
-      <c r="D296" s="11"/>
-      <c r="E296" s="12"/>
-      <c r="F296" s="12"/>
-      <c r="G296" s="13"/>
-      <c r="H296" s="13"/>
-      <c r="I296" s="13"/>
-      <c r="J296" s="13"/>
-      <c r="K296" s="13"/>
-      <c r="L296" s="13"/>
-      <c r="M296" s="13"/>
-      <c r="N296" s="13"/>
-      <c r="O296" s="13"/>
-    </row>
-    <row r="297" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A297" s="10"/>
-      <c r="B297" s="10"/>
-      <c r="C297" s="10"/>
-      <c r="D297" s="10"/>
-      <c r="E297" s="10"/>
-      <c r="F297" s="5"/>
+      <c r="B297" s="11"/>
+      <c r="C297" s="11"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="12"/>
+      <c r="F297" s="12"/>
+      <c r="G297" s="13"/>
+      <c r="H297" s="13"/>
+      <c r="I297" s="13"/>
+      <c r="J297" s="13"/>
+      <c r="K297" s="13"/>
+      <c r="L297" s="13"/>
+      <c r="M297" s="13"/>
+      <c r="N297" s="13"/>
+      <c r="O297" s="13"/>
     </row>
     <row r="298" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A298" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B298" s="15" t="s">
-        <v>84</v>
-      </c>
+      <c r="A298" s="10"/>
+      <c r="B298" s="10"/>
       <c r="C298" s="10"/>
-      <c r="D298" s="5"/>
-      <c r="E298" s="5"/>
+      <c r="D298" s="10"/>
+      <c r="E298" s="10"/>
       <c r="F298" s="5"/>
     </row>
     <row r="299" spans="1:15" ht="15.75" customHeight="1">
       <c r="A299" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C299" s="10"/>
       <c r="D299" s="5"/>
@@ -16129,10 +16233,10 @@
     </row>
     <row r="300" spans="1:15" ht="15.75" customHeight="1">
       <c r="A300" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C300" s="10"/>
       <c r="D300" s="5"/>
@@ -16141,7 +16245,7 @@
     </row>
     <row r="301" spans="1:15" ht="15.75" customHeight="1">
       <c r="A301" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B301" s="15" t="s">
         <v>14</v>
@@ -16152,17 +16256,19 @@
       <c r="F301" s="5"/>
     </row>
     <row r="302" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A302" s="16"/>
-      <c r="B302" s="5"/>
-      <c r="C302" s="5"/>
+      <c r="A302" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B302" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C302" s="10"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
     </row>
     <row r="303" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A303" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A303" s="16"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
@@ -16171,7 +16277,7 @@
     </row>
     <row r="304" spans="1:15" ht="15.75" customHeight="1">
       <c r="A304" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -16180,53 +16286,53 @@
       <c r="F304" s="5"/>
     </row>
     <row r="305" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A305" s="17" t="s">
+      <c r="A305" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B305" s="5"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+    </row>
+    <row r="306" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A306" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B305" s="17" t="s">
+      <c r="B306" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C305" s="17" t="s">
+      <c r="C306" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D305" s="17" t="s">
+      <c r="D306" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E305" s="17" t="s">
+      <c r="E306" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F305" s="5"/>
-    </row>
-    <row r="306" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A306" s="18">
+      <c r="F306" s="5"/>
+    </row>
+    <row r="307" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A307" s="18">
         <v>10</v>
       </c>
-      <c r="B306" s="15" t="s">
+      <c r="B307" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="C307" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D306" s="15" t="s">
+      <c r="D307" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E306" s="15" t="s">
+      <c r="E307" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F306" s="5"/>
-    </row>
-    <row r="307" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A307" s="5"/>
-      <c r="B307" s="5"/>
-      <c r="C307" s="5"/>
-      <c r="D307" s="5"/>
-      <c r="E307" s="5"/>
       <c r="F307" s="5"/>
     </row>
     <row r="308" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A308" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
@@ -16235,48 +16341,50 @@
     </row>
     <row r="309" spans="1:15" ht="15.75" customHeight="1">
       <c r="A309" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
-      <c r="D309" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D309" s="5"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
     </row>
     <row r="310" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A310" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B310" s="19" t="s">
-        <v>52</v>
-      </c>
+      <c r="A310" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B310" s="5"/>
       <c r="C310" s="5"/>
-      <c r="D310" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E310" s="20"/>
+      <c r="D310" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E310" s="5"/>
       <c r="F310" s="5"/>
     </row>
     <row r="311" spans="1:15" ht="15.75" customHeight="1">
       <c r="A311" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B311" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B311" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="C311" s="5"/>
       <c r="D311" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="5"/>
     </row>
     <row r="312" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A312" s="5"/>
-      <c r="B312" s="5"/>
+      <c r="A312" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B312" s="19"/>
       <c r="C312" s="5"/>
-      <c r="D312" s="5"/>
-      <c r="E312" s="5"/>
+      <c r="D312" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E312" s="20"/>
       <c r="F312" s="5"/>
     </row>
     <row r="313" spans="1:15" ht="15.75" customHeight="1">
@@ -16287,51 +16395,47 @@
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
     </row>
-    <row r="314" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A314" s="11" t="s">
+    <row r="314" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A314" s="5"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+    </row>
+    <row r="315" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A315" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B314" s="11"/>
-      <c r="C314" s="11"/>
-      <c r="D314" s="11"/>
-      <c r="E314" s="12"/>
-      <c r="F314" s="12"/>
-      <c r="G314" s="21"/>
-      <c r="H314" s="21"/>
-      <c r="I314" s="21"/>
-      <c r="J314" s="21"/>
-      <c r="K314" s="21"/>
-      <c r="L314" s="21"/>
-      <c r="M314" s="21"/>
-      <c r="N314" s="21"/>
-      <c r="O314" s="21"/>
-    </row>
-    <row r="315" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A315" s="10"/>
-      <c r="B315" s="10"/>
-      <c r="C315" s="10"/>
-      <c r="D315" s="10"/>
-      <c r="E315" s="10"/>
-      <c r="F315" s="5"/>
+      <c r="B315" s="11"/>
+      <c r="C315" s="11"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="12"/>
+      <c r="F315" s="12"/>
+      <c r="G315" s="21"/>
+      <c r="H315" s="21"/>
+      <c r="I315" s="21"/>
+      <c r="J315" s="21"/>
+      <c r="K315" s="21"/>
+      <c r="L315" s="21"/>
+      <c r="M315" s="21"/>
+      <c r="N315" s="21"/>
+      <c r="O315" s="21"/>
     </row>
     <row r="316" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A316" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B316" s="23" t="s">
-        <v>87</v>
-      </c>
+      <c r="A316" s="10"/>
+      <c r="B316" s="10"/>
       <c r="C316" s="10"/>
-      <c r="D316" s="5"/>
-      <c r="E316" s="5"/>
+      <c r="D316" s="10"/>
+      <c r="E316" s="10"/>
       <c r="F316" s="5"/>
     </row>
     <row r="317" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A317" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C317" s="10"/>
       <c r="D317" s="5"/>
@@ -16340,10 +16444,10 @@
     </row>
     <row r="318" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A318" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C318" s="10"/>
       <c r="D318" s="5"/>
@@ -16352,7 +16456,7 @@
     </row>
     <row r="319" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A319" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B319" s="23" t="s">
         <v>14</v>
@@ -16363,17 +16467,19 @@
       <c r="F319" s="5"/>
     </row>
     <row r="320" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A320" s="24"/>
-      <c r="B320" s="5"/>
-      <c r="C320" s="5"/>
+      <c r="A320" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C320" s="10"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
     </row>
     <row r="321" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A321" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A321" s="24"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
@@ -16382,7 +16488,7 @@
     </row>
     <row r="322" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A322" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -16391,73 +16497,73 @@
       <c r="F322" s="5"/>
     </row>
     <row r="323" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A323" s="17" t="s">
+      <c r="A323" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+    </row>
+    <row r="324" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A324" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B323" s="17" t="s">
+      <c r="B324" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C323" s="17" t="s">
+      <c r="C324" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D323" s="17" t="s">
+      <c r="D324" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E323" s="17" t="s">
+      <c r="E324" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F323" s="5"/>
-    </row>
-    <row r="324" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A324" s="18">
+      <c r="F324" s="5"/>
+    </row>
+    <row r="325" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A325" s="18">
         <v>10</v>
       </c>
-      <c r="B324" s="23" t="s">
+      <c r="B325" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C324" s="23" t="s">
+      <c r="C325" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D324" s="23" t="s">
+      <c r="D325" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E324" s="23" t="s">
+      <c r="E325" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F324" s="5"/>
-    </row>
-    <row r="325" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A325" s="34">
+      <c r="F325" s="5"/>
+    </row>
+    <row r="326" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A326" s="34">
         <v>10</v>
       </c>
-      <c r="B325" s="35" t="s">
+      <c r="B326" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C325" s="35" t="s">
+      <c r="C326" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D325" s="35" t="s">
+      <c r="D326" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="E325" s="35" t="s">
+      <c r="E326" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F325" s="28" t="s">
+      <c r="F326" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="326" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A326" s="5"/>
-      <c r="B326" s="5"/>
-      <c r="C326" s="5"/>
-      <c r="D326" s="5"/>
-      <c r="E326" s="5"/>
-      <c r="F326" s="5"/>
-    </row>
     <row r="327" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A327" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
@@ -16466,48 +16572,50 @@
     </row>
     <row r="328" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A328" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
-      <c r="D328" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="D328" s="5"/>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
     </row>
     <row r="329" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A329" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B329" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A329" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B329" s="5"/>
       <c r="C329" s="5"/>
-      <c r="D329" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E329" s="20"/>
+      <c r="D329" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E329" s="5"/>
       <c r="F329" s="5"/>
     </row>
     <row r="330" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A330" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B330" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B330" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C330" s="5"/>
       <c r="D330" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E330" s="20"/>
       <c r="F330" s="5"/>
     </row>
     <row r="331" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A331" s="5"/>
-      <c r="B331" s="5"/>
+      <c r="A331" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B331" s="19"/>
       <c r="C331" s="5"/>
-      <c r="D331" s="5"/>
-      <c r="E331" s="5"/>
+      <c r="D331" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E331" s="20"/>
       <c r="F331" s="5"/>
     </row>
     <row r="332" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
@@ -16519,50 +16627,46 @@
       <c r="F332" s="5"/>
     </row>
     <row r="333" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A333" s="11" t="s">
+      <c r="A333" s="5"/>
+      <c r="B333" s="5"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+    </row>
+    <row r="334" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A334" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B333" s="11"/>
-      <c r="C333" s="11"/>
-      <c r="D333" s="11"/>
-      <c r="E333" s="12"/>
-      <c r="F333" s="12"/>
-      <c r="G333" s="21"/>
-      <c r="H333" s="21"/>
-      <c r="I333" s="21"/>
-      <c r="J333" s="21"/>
-      <c r="K333" s="21"/>
-      <c r="L333" s="21"/>
-      <c r="M333" s="21"/>
-      <c r="N333" s="21"/>
-      <c r="O333" s="21"/>
-    </row>
-    <row r="334" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A334" s="10"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="10"/>
-      <c r="D334" s="10"/>
-      <c r="E334" s="10"/>
-      <c r="F334" s="5"/>
+      <c r="B334" s="11"/>
+      <c r="C334" s="11"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="12"/>
+      <c r="F334" s="12"/>
+      <c r="G334" s="21"/>
+      <c r="H334" s="21"/>
+      <c r="I334" s="21"/>
+      <c r="J334" s="21"/>
+      <c r="K334" s="21"/>
+      <c r="L334" s="21"/>
+      <c r="M334" s="21"/>
+      <c r="N334" s="21"/>
+      <c r="O334" s="21"/>
     </row>
     <row r="335" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A335" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B335" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C335" s="27"/>
-      <c r="D335" s="28"/>
-      <c r="E335" s="28"/>
+      <c r="A335" s="10"/>
+      <c r="B335" s="10"/>
+      <c r="C335" s="10"/>
+      <c r="D335" s="10"/>
+      <c r="E335" s="10"/>
       <c r="F335" s="5"/>
     </row>
     <row r="336" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A336" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B336" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C336" s="27"/>
       <c r="D336" s="28"/>
@@ -16571,10 +16675,10 @@
     </row>
     <row r="337" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A337" s="25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B337" s="26" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="C337" s="27"/>
       <c r="D337" s="28"/>
@@ -16583,7 +16687,7 @@
     </row>
     <row r="338" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A338" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B338" s="26" t="s">
         <v>14</v>
@@ -16594,17 +16698,19 @@
       <c r="F338" s="5"/>
     </row>
     <row r="339" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A339" s="29"/>
-      <c r="B339" s="28"/>
-      <c r="C339" s="28"/>
+      <c r="A339" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B339" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C339" s="27"/>
       <c r="D339" s="28"/>
       <c r="E339" s="28"/>
       <c r="F339" s="5"/>
     </row>
     <row r="340" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A340" s="28" t="s">
-        <v>16</v>
-      </c>
+      <c r="A340" s="29"/>
       <c r="B340" s="28"/>
       <c r="C340" s="28"/>
       <c r="D340" s="28"/>
@@ -16613,7 +16719,7 @@
     </row>
     <row r="341" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A341" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B341" s="28"/>
       <c r="C341" s="28"/>
@@ -16622,53 +16728,53 @@
       <c r="F341" s="5"/>
     </row>
     <row r="342" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A342" s="30" t="s">
+      <c r="A342" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B342" s="28"/>
+      <c r="C342" s="28"/>
+      <c r="D342" s="28"/>
+      <c r="E342" s="28"/>
+      <c r="F342" s="5"/>
+    </row>
+    <row r="343" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A343" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B342" s="30" t="s">
+      <c r="B343" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C342" s="30" t="s">
+      <c r="C343" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D342" s="30" t="s">
+      <c r="D343" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E342" s="30" t="s">
+      <c r="E343" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F342" s="5"/>
-    </row>
-    <row r="343" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A343" s="31">
+      <c r="F343" s="5"/>
+    </row>
+    <row r="344" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A344" s="31">
         <v>10</v>
       </c>
-      <c r="B343" s="26" t="s">
+      <c r="B344" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C343" s="26" t="s">
+      <c r="C344" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D343" s="26" t="s">
+      <c r="D344" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E343" s="26" t="s">
+      <c r="E344" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F343" s="5"/>
-    </row>
-    <row r="344" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A344" s="28"/>
-      <c r="B344" s="28"/>
-      <c r="C344" s="28"/>
-      <c r="D344" s="28"/>
-      <c r="E344" s="28"/>
       <c r="F344" s="5"/>
     </row>
     <row r="345" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A345" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="A345" s="28"/>
       <c r="B345" s="28"/>
       <c r="C345" s="28"/>
       <c r="D345" s="28"/>
@@ -16677,48 +16783,50 @@
     </row>
     <row r="346" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A346" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B346" s="28"/>
       <c r="C346" s="28"/>
-      <c r="D346" s="28" t="s">
-        <v>99</v>
-      </c>
+      <c r="D346" s="28"/>
       <c r="E346" s="28"/>
       <c r="F346" s="5"/>
     </row>
     <row r="347" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A347" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B347" s="32" t="s">
-        <v>30</v>
-      </c>
+      <c r="A347" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B347" s="28"/>
       <c r="C347" s="28"/>
-      <c r="D347" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E347" s="33"/>
+      <c r="D347" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E347" s="28"/>
       <c r="F347" s="5"/>
     </row>
     <row r="348" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A348" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B348" s="32"/>
+        <v>29</v>
+      </c>
+      <c r="B348" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="C348" s="28"/>
       <c r="D348" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E348" s="33"/>
       <c r="F348" s="5"/>
     </row>
     <row r="349" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A349" s="5"/>
-      <c r="B349" s="5"/>
-      <c r="C349" s="5"/>
-      <c r="D349" s="5"/>
-      <c r="E349" s="5"/>
+      <c r="A349" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B349" s="32"/>
+      <c r="C349" s="28"/>
+      <c r="D349" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E349" s="33"/>
       <c r="F349" s="5"/>
     </row>
     <row r="350" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
@@ -16730,50 +16838,46 @@
       <c r="F350" s="5"/>
     </row>
     <row r="351" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A351" s="11" t="s">
+      <c r="A351" s="5"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+    </row>
+    <row r="352" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A352" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B351" s="11"/>
-      <c r="C351" s="11"/>
-      <c r="D351" s="11"/>
-      <c r="E351" s="12"/>
-      <c r="F351" s="12"/>
-      <c r="G351" s="21"/>
-      <c r="H351" s="21"/>
-      <c r="I351" s="21"/>
-      <c r="J351" s="21"/>
-      <c r="K351" s="21"/>
-      <c r="L351" s="21"/>
-      <c r="M351" s="21"/>
-      <c r="N351" s="21"/>
-      <c r="O351" s="21"/>
-    </row>
-    <row r="352" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A352" s="10"/>
-      <c r="B352" s="10"/>
-      <c r="C352" s="10"/>
-      <c r="D352" s="10"/>
-      <c r="E352" s="10"/>
-      <c r="F352" s="5"/>
+      <c r="B352" s="11"/>
+      <c r="C352" s="11"/>
+      <c r="D352" s="11"/>
+      <c r="E352" s="12"/>
+      <c r="F352" s="12"/>
+      <c r="G352" s="21"/>
+      <c r="H352" s="21"/>
+      <c r="I352" s="21"/>
+      <c r="J352" s="21"/>
+      <c r="K352" s="21"/>
+      <c r="L352" s="21"/>
+      <c r="M352" s="21"/>
+      <c r="N352" s="21"/>
+      <c r="O352" s="21"/>
     </row>
     <row r="353" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A353" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B353" s="23" t="s">
-        <v>103</v>
-      </c>
+      <c r="A353" s="10"/>
+      <c r="B353" s="10"/>
       <c r="C353" s="10"/>
-      <c r="D353" s="5"/>
-      <c r="E353" s="5"/>
+      <c r="D353" s="10"/>
+      <c r="E353" s="10"/>
       <c r="F353" s="5"/>
     </row>
     <row r="354" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A354" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C354" s="10"/>
       <c r="D354" s="5"/>
@@ -16782,10 +16886,10 @@
     </row>
     <row r="355" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A355" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="C355" s="10"/>
       <c r="D355" s="5"/>
@@ -16794,7 +16898,7 @@
     </row>
     <row r="356" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A356" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B356" s="23" t="s">
         <v>14</v>
@@ -16805,17 +16909,19 @@
       <c r="F356" s="5"/>
     </row>
     <row r="357" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A357" s="24"/>
-      <c r="B357" s="5"/>
-      <c r="C357" s="5"/>
+      <c r="A357" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C357" s="10"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
     </row>
     <row r="358" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A358" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A358" s="24"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
@@ -16824,7 +16930,7 @@
     </row>
     <row r="359" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A359" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -16833,53 +16939,53 @@
       <c r="F359" s="5"/>
     </row>
     <row r="360" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A360" s="17" t="s">
+      <c r="A360" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B360" s="5"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+    </row>
+    <row r="361" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A361" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B360" s="17" t="s">
+      <c r="B361" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C360" s="17" t="s">
+      <c r="C361" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D360" s="17" t="s">
+      <c r="D361" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E360" s="17" t="s">
+      <c r="E361" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F360" s="5"/>
-    </row>
-    <row r="361" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A361" s="18">
+      <c r="F361" s="5"/>
+    </row>
+    <row r="362" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A362" s="18">
         <v>10</v>
       </c>
-      <c r="B361" s="23" t="s">
+      <c r="B362" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C361" s="23" t="s">
+      <c r="C362" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D361" s="23" t="s">
+      <c r="D362" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E361" s="23" t="s">
+      <c r="E362" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F361" s="5"/>
-    </row>
-    <row r="362" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A362" s="5"/>
-      <c r="B362" s="5"/>
-      <c r="C362" s="5"/>
-      <c r="D362" s="5"/>
-      <c r="E362" s="5"/>
       <c r="F362" s="5"/>
     </row>
     <row r="363" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A363" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
@@ -16888,48 +16994,50 @@
     </row>
     <row r="364" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A364" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
-      <c r="D364" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="D364" s="5"/>
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
     </row>
     <row r="365" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A365" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B365" s="19" t="s">
-        <v>107</v>
-      </c>
+      <c r="A365" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B365" s="5"/>
       <c r="C365" s="5"/>
-      <c r="D365" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E365" s="20"/>
+      <c r="D365" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E365" s="5"/>
       <c r="F365" s="5"/>
     </row>
     <row r="366" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A366" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B366" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B366" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="C366" s="5"/>
       <c r="D366" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E366" s="20"/>
       <c r="F366" s="5"/>
     </row>
-    <row r="367" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A367" s="5"/>
-      <c r="B367" s="5"/>
+    <row r="367" spans="1:6" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A367" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B367" s="19"/>
       <c r="C367" s="5"/>
-      <c r="D367" s="5"/>
-      <c r="E367" s="5"/>
+      <c r="D367" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E367" s="20"/>
       <c r="F367" s="5"/>
     </row>
     <row r="368" spans="1:6" ht="15.75" customHeight="1">
@@ -16941,9 +17049,7 @@
       <c r="F368" s="5"/>
     </row>
     <row r="369" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A369" s="58" t="s">
-        <v>121</v>
-      </c>
+      <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
@@ -16951,7 +17057,9 @@
       <c r="F369" s="5"/>
     </row>
     <row r="370" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A370" s="5"/>
+      <c r="A370" s="58" t="s">
+        <v>121</v>
+      </c>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
@@ -24373,6 +24481,14 @@
       <c r="D1297" s="5"/>
       <c r="E1297" s="5"/>
       <c r="F1297" s="5"/>
+    </row>
+    <row r="1298" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A1298" s="5"/>
+      <c r="B1298" s="5"/>
+      <c r="C1298" s="5"/>
+      <c r="D1298" s="5"/>
+      <c r="E1298" s="5"/>
+      <c r="F1298" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="36"/>
